--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CD174-55E1-4B52-84C0-34769CC03A14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB86EAD-D38E-4813-9BE4-C092E2E2CB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nama</t>
   </si>
   <si>
     <t>Akurasi</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>31 Juli 2023</t>
+  </si>
+  <si>
+    <t>Zufar</t>
   </si>
 </sst>
 </file>
@@ -383,20 +392,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA58626-B465-4A46-8F9A-24D84A9757CC}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB86EAD-D38E-4813-9BE4-C092E2E2CB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA308E-A92E-4945-97ED-4D842EAF96C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
   <sheets>
-    <sheet name="fast typing" sheetId="2" r:id="rId1"/>
+    <sheet name="nilai" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nama</t>
   </si>
@@ -41,18 +41,29 @@
   <si>
     <t>Zufar</t>
   </si>
+  <si>
+    <t>MENGETIK 10 JARI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,8 +87,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA58626-B465-4A46-8F9A-24D84A9757CC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,29 +430,292 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="C3" s="2">
         <v>80</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA308E-A92E-4945-97ED-4D842EAF96C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F7A9E-4741-4BD5-BEC8-5CC527F93028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Nama</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>MENGETIK 10 JARI</t>
+  </si>
+  <si>
+    <t>Aisyah</t>
+  </si>
+  <si>
+    <t>3 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Amila</t>
+  </si>
+  <si>
+    <t>Putri</t>
   </si>
 </sst>
 </file>
@@ -99,10 +111,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,7 +433,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,40 +443,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -487,9 +499,15 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>81</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -501,9 +519,15 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45.2</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -515,9 +539,15 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.4</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afwan zen mau nitip dulu\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F7A9E-4741-4BD5-BEC8-5CC527F93028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70252469-1FDA-44E9-A0AD-CE9491191971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
   <sheets>
     <sheet name="nilai" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Nama</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Putri</t>
+  </si>
+  <si>
+    <t>Safaraz</t>
+  </si>
+  <si>
+    <t>4 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Intan</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,9 +568,15 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>90</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -573,9 +588,15 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>76</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afwan zen mau nitip dulu\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70252469-1FDA-44E9-A0AD-CE9491191971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9C852-88D9-42D7-A03D-43389D61226A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Nama</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Intan</t>
+  </si>
+  <si>
+    <t>Sekar</t>
+  </si>
+  <si>
+    <t>Nayla</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +495,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -509,13 +515,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>81</v>
+        <v>45.2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -529,13 +535,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>45.2</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -549,13 +555,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>10.4</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -569,13 +575,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>90</v>
+        <v>10.4</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -589,13 +595,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -608,9 +614,15 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>71</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -622,9 +634,15 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>80</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -762,6 +780,9 @@
       <c r="L19" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afwan zen mau nitip dulu\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9C852-88D9-42D7-A03D-43389D61226A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C47BB00-9A6C-4470-8E30-E0B3683E02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
   <sheets>
     <sheet name="nilai" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Nama</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Nayla</t>
+  </si>
+  <si>
+    <t>Rizki</t>
+  </si>
+  <si>
+    <t>8 Agustus 2023</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,13 +601,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>90</v>
+        <v>94.7</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -615,13 +621,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -635,13 +641,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -654,9 +660,15 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -780,8 +792,8 @@
       <c r="L19" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C10">
-    <sortCondition ref="A3:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C11">
+    <sortCondition ref="A3:A11"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C47BB00-9A6C-4470-8E30-E0B3683E02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804CAED-5480-4143-8C0E-891983C067A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Nama</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>8 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Hazwan</t>
+  </si>
+  <si>
+    <t>Kholid</t>
+  </si>
+  <si>
+    <t>9 Agustus 2023</t>
   </si>
 </sst>
 </file>
@@ -454,7 +463,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,13 +550,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>76</v>
+        <v>38.9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -561,13 +570,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -581,13 +590,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
-        <v>10.4</v>
+        <v>89.2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -601,13 +610,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>94.7</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -621,13 +630,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>90</v>
+        <v>10.4</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -641,13 +650,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>71</v>
+        <v>94.7</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -661,13 +670,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -680,9 +689,15 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>71</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -694,9 +709,15 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>80</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -792,8 +813,8 @@
       <c r="L19" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C11">
-    <sortCondition ref="A3:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C13">
+    <sortCondition ref="A3:A13"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804CAED-5480-4143-8C0E-891983C067A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37DBFE-558C-4EAD-A7AC-C6F68D5E5A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Nama</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>9 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Khanza</t>
+  </si>
+  <si>
+    <t>10 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Alya</t>
+  </si>
+  <si>
+    <t>Aiko</t>
   </si>
 </sst>
 </file>
@@ -463,13 +475,13 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -729,9 +741,15 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>77</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -743,9 +761,15 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>73</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -757,9 +781,15 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>73</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37DBFE-558C-4EAD-A7AC-C6F68D5E5A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976336C9-39F0-4558-8F37-92D599AED4D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Nama</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Aiko</t>
+  </si>
+  <si>
+    <t>Syifa</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,13 +525,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -542,13 +545,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>45.2</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -562,13 +565,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>38.9</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -582,13 +585,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>76</v>
+        <v>45.2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -602,13 +605,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2">
-        <v>89.2</v>
+        <v>38.9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -622,13 +625,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -642,13 +645,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>10.4</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -662,13 +665,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>94.7</v>
+        <v>89.2</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -682,13 +685,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -702,13 +705,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>71</v>
+        <v>10.4</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -722,13 +725,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>80</v>
+        <v>94.7</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -742,13 +745,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -762,13 +765,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -782,13 +785,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -801,9 +804,15 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -843,8 +852,8 @@
       <c r="L19" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C13">
-    <sortCondition ref="A3:A13"/>
+  <sortState ref="A3:C17">
+    <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976336C9-39F0-4558-8F37-92D599AED4D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F4E75-A0B1-47C8-B2CC-7FB91748C59F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Nama</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Syifa</t>
+  </si>
+  <si>
+    <t>Mirza</t>
+  </si>
+  <si>
+    <t>14 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Nadil</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>Nizam</t>
+  </si>
+  <si>
+    <t>Dafa</t>
   </si>
 </sst>
 </file>
@@ -475,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA58626-B465-4A46-8F9A-24D84A9757CC}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +623,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>38.9</v>
+        <v>56.1</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -625,13 +643,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>76</v>
+        <v>38.9</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -645,13 +663,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -665,13 +683,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>89.2</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -685,13 +703,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -705,13 +723,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>10.4</v>
+        <v>89.2</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -724,14 +742,14 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>94.7</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -744,14 +762,14 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <v>90</v>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>91</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -765,13 +783,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -785,13 +803,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -805,13 +823,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>80</v>
+        <v>10.4</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -824,9 +842,15 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>94.7</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -838,9 +862,15 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>90</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -851,8 +881,41 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:C17">
+  <sortState ref="A3:C22">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="2">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F4E75-A0B1-47C8-B2CC-7FB91748C59F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD96B8-14D8-44E3-94F8-4EC7EF3AF7F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Nama</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Dafa</t>
+  </si>
+  <si>
+    <t>Kholis</t>
+  </si>
+  <si>
+    <t>15 Agustus 2023</t>
+  </si>
+  <si>
+    <t>Akmal</t>
+  </si>
+  <si>
+    <t>Idris</t>
+  </si>
+  <si>
+    <t>Fahri</t>
+  </si>
+  <si>
+    <t>Syahid</t>
   </si>
 </sst>
 </file>
@@ -493,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA58626-B465-4A46-8F9A-24D84A9757CC}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,13 +601,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="2">
-        <v>73</v>
+        <v>95.5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -603,13 +621,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
-        <v>45.2</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -623,13 +641,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>56.1</v>
+        <v>45.2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -643,13 +661,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>38.9</v>
+        <v>56.1</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -663,13 +681,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>76</v>
+        <v>64.7</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -683,13 +701,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>49</v>
+        <v>38.9</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -703,13 +721,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="2">
-        <v>77</v>
+        <v>90.9</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -723,13 +741,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>89.2</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -742,14 +760,14 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
-        <v>74</v>
+      <c r="C13" s="2">
+        <v>49</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -762,14 +780,14 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>91</v>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -783,13 +801,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>85</v>
+        <v>89.2</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -803,13 +821,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -822,14 +840,14 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10.4</v>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -842,14 +860,14 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>94.7</v>
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>91</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -863,13 +881,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -883,39 +901,94 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>39</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C27" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C22">
+  <sortState ref="A3:C27">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="2">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD1790D-D437-4614-ABE0-DFCC6CF6129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D28AEC-F117-4BB5-86AA-42BBCD90141C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rabu" sheetId="1" r:id="rId1"/>
+    <sheet name="الأربعاء" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>اسم</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>الامتحان</t>
+  </si>
+  <si>
+    <t>Rafa</t>
+  </si>
+  <si>
+    <t>Nando</t>
+  </si>
+  <si>
+    <t>Hazwan</t>
+  </si>
+  <si>
+    <t>Kholid</t>
+  </si>
+  <si>
+    <t>Rayhan</t>
+  </si>
+  <si>
+    <t>Rihal</t>
+  </si>
+  <si>
+    <t>Radja</t>
+  </si>
+  <si>
+    <t>Faiq</t>
+  </si>
+  <si>
+    <t>Shinra</t>
   </si>
 </sst>
 </file>
@@ -61,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +96,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,15 +130,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,324 +430,508 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:W3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:J3" si="0">D3+1</f>
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>3</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <f t="shared" ref="N3:S3" si="1">M3+1</f>
         <v>4</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>2</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2">
+        <v>86</v>
+      </c>
+      <c r="H6" s="2">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>90</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>96</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>96</v>
+      </c>
+      <c r="I7" s="2">
+        <v>96</v>
+      </c>
+      <c r="J7" s="5">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2">
+        <v>93</v>
+      </c>
+      <c r="I8" s="5">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>93</v>
+      </c>
+      <c r="G9" s="5">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2">
+        <v>96</v>
+      </c>
+      <c r="J9" s="2">
+        <v>93</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>96</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>93</v>
+      </c>
+      <c r="I10" s="2">
+        <v>90</v>
+      </c>
+      <c r="J10" s="2">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2">
+        <v>96</v>
+      </c>
+      <c r="H11" s="3">
+        <v>93</v>
+      </c>
+      <c r="I11" s="2">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2">
+        <v>86</v>
+      </c>
+      <c r="I12" s="2">
+        <v>90</v>
+      </c>
+      <c r="J12" s="2">
+        <v>80</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -714,112 +944,115 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J12">
+    <sortCondition ref="A4:A12"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A1:A3"/>
@@ -829,5 +1062,6 @@
     <mergeCell ref="B1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D28AEC-F117-4BB5-86AA-42BBCD90141C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85287536-0193-4CF5-96D1-E59B2A1937D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الأربعاء" sheetId="1" r:id="rId1"/>
+    <sheet name="الخميس" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>اسم</t>
   </si>
@@ -79,6 +80,30 @@
   </si>
   <si>
     <t>Shinra</t>
+  </si>
+  <si>
+    <t>Aisyah</t>
+  </si>
+  <si>
+    <t>Amila</t>
+  </si>
+  <si>
+    <t>Syifa</t>
+  </si>
+  <si>
+    <t>Putri</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Khanza</t>
+  </si>
+  <si>
+    <t>Alya</t>
+  </si>
+  <si>
+    <t>Aiko</t>
   </si>
 </sst>
 </file>
@@ -130,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,6 +170,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,9 +457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,69 +468,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -578,7 +606,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="4"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1064,4 +1092,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:J3" si="0">D3+1</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:S3" si="1">M3+1</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2">
+        <v>86</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2">
+        <v>93</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2">
+        <v>83</v>
+      </c>
+      <c r="F8" s="2">
+        <v>86</v>
+      </c>
+      <c r="G8" s="3">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2">
+        <v>93</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5">
+        <v>90</v>
+      </c>
+      <c r="D9" s="5">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5">
+        <v>90</v>
+      </c>
+      <c r="F9" s="5">
+        <v>93</v>
+      </c>
+      <c r="G9" s="5">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2">
+        <v>83</v>
+      </c>
+      <c r="G10" s="2">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2">
+        <v>86</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2">
+        <v>83</v>
+      </c>
+      <c r="G11" s="2">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2">
+        <v>90</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
+    <sortCondition ref="A4:A11"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:W3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85287536-0193-4CF5-96D1-E59B2A1937D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BDDC7-E27A-4CC1-BAFB-64E3AFAD2E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الأربعاء" sheetId="1" r:id="rId1"/>
     <sheet name="الخميس" sheetId="2" r:id="rId2"/>
+    <sheet name="السته" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>اسم</t>
   </si>
@@ -104,6 +105,24 @@
   </si>
   <si>
     <t>Aiko</t>
+  </si>
+  <si>
+    <t>Intan</t>
+  </si>
+  <si>
+    <t>Najwa Q</t>
+  </si>
+  <si>
+    <t>Sekar</t>
+  </si>
+  <si>
+    <t>Najwa H</t>
+  </si>
+  <si>
+    <t>Nida</t>
+  </si>
+  <si>
+    <t>Mila</t>
   </si>
 </sst>
 </file>
@@ -113,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +143,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +199,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,69 +508,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -606,7 +646,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1096,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,69 +1149,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1247,7 +1287,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1512,6 +1552,234 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2">
+        <v>95</v>
+      </c>
+      <c r="G13" s="3">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2">
+        <v>90</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="9">
+        <v>93</v>
+      </c>
+      <c r="K13" s="8">
+        <v>95</v>
+      </c>
+      <c r="L13" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2">
+        <v>96</v>
+      </c>
+      <c r="D14" s="5">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2">
+        <v>90</v>
+      </c>
+      <c r="G14" s="5">
+        <v>96</v>
+      </c>
+      <c r="H14" s="2">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2">
+        <v>86</v>
+      </c>
+      <c r="J14" s="8">
+        <v>90</v>
+      </c>
+      <c r="K14" s="8">
+        <v>90</v>
+      </c>
+      <c r="L14" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5">
+        <v>83</v>
+      </c>
+      <c r="C15" s="2">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2">
+        <v>93</v>
+      </c>
+      <c r="H15" s="5">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2">
+        <v>93</v>
+      </c>
+      <c r="J15" s="8">
+        <v>93</v>
+      </c>
+      <c r="K15" s="8">
+        <v>90</v>
+      </c>
+      <c r="L15" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2">
+        <v>96</v>
+      </c>
+      <c r="H16" s="3">
+        <v>100</v>
+      </c>
+      <c r="I16" s="5">
+        <v>96</v>
+      </c>
+      <c r="J16" s="10">
+        <v>93</v>
+      </c>
+      <c r="K16" s="8">
+        <v>96</v>
+      </c>
+      <c r="L16" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2">
+        <v>96</v>
+      </c>
+      <c r="H17" s="2">
+        <v>90</v>
+      </c>
+      <c r="I17" s="2">
+        <v>96</v>
+      </c>
+      <c r="J17" s="11">
+        <v>90</v>
+      </c>
+      <c r="K17" s="10">
+        <v>90</v>
+      </c>
+      <c r="L17" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" s="2">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2">
+        <v>86</v>
+      </c>
+      <c r="I18" s="3">
+        <v>86</v>
+      </c>
+      <c r="J18" s="11">
+        <v>86</v>
+      </c>
+      <c r="K18" s="9">
+        <v>93</v>
+      </c>
+      <c r="L18" s="8">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
@@ -1528,4 +1796,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BD0971-5C33-4ED0-84E6-9697F72A0AB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BDDC7-E27A-4CC1-BAFB-64E3AFAD2E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F136A82-289B-4CA0-AE9C-4F51FC531C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="الأربعاء" sheetId="1" r:id="rId1"/>
-    <sheet name="الخميس" sheetId="2" r:id="rId2"/>
-    <sheet name="السته" sheetId="3" r:id="rId3"/>
+    <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
+    <sheet name="الأربعاء" sheetId="1" r:id="rId2"/>
+    <sheet name="الخميس" sheetId="2" r:id="rId3"/>
+    <sheet name="الجمعة" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>اسم</t>
   </si>
@@ -123,6 +124,45 @@
   </si>
   <si>
     <t>Mila</t>
+  </si>
+  <si>
+    <t>Nadil</t>
+  </si>
+  <si>
+    <t>Hanif</t>
+  </si>
+  <si>
+    <t>Zidane</t>
+  </si>
+  <si>
+    <t>Mirza</t>
+  </si>
+  <si>
+    <t>Nizam</t>
+  </si>
+  <si>
+    <t>Zufar</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <t>Dafa</t>
+  </si>
+  <si>
+    <t>Wildan</t>
+  </si>
+  <si>
+    <t>Fahri</t>
+  </si>
+  <si>
+    <t>Selasa</t>
   </si>
 </sst>
 </file>
@@ -180,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,9 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,6 +250,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,12 +540,692 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:J3" si="0">D3+1</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:S3" si="1">M3+1</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>93</v>
+      </c>
+      <c r="G4" s="2">
+        <v>96</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>96</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7">
+        <v>93</v>
+      </c>
+      <c r="F5" s="5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2">
+        <v>96</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2">
+        <v>86</v>
+      </c>
+      <c r="H6" s="2">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2">
+        <v>90</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>93</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>93</v>
+      </c>
+      <c r="I8" s="2">
+        <v>93</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>96</v>
+      </c>
+      <c r="D9" s="5">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>96</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>90</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7">
+        <v>90</v>
+      </c>
+      <c r="C11" s="7">
+        <v>90</v>
+      </c>
+      <c r="D11" s="7">
+        <v>83</v>
+      </c>
+      <c r="E11" s="7">
+        <v>90</v>
+      </c>
+      <c r="F11" s="7">
+        <v>96</v>
+      </c>
+      <c r="G11" s="9">
+        <v>80</v>
+      </c>
+      <c r="H11" s="9">
+        <v>83</v>
+      </c>
+      <c r="I11" s="9">
+        <v>80</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2">
+        <v>86</v>
+      </c>
+      <c r="E12" s="5">
+        <v>83</v>
+      </c>
+      <c r="F12" s="7">
+        <v>86</v>
+      </c>
+      <c r="G12" s="7">
+        <v>90</v>
+      </c>
+      <c r="H12" s="7">
+        <v>83</v>
+      </c>
+      <c r="I12" s="8">
+        <v>83</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2">
+        <v>93</v>
+      </c>
+      <c r="F13" s="8">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7">
+        <v>83</v>
+      </c>
+      <c r="H13" s="8">
+        <v>93</v>
+      </c>
+      <c r="I13" s="7">
+        <v>90</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E13">
+    <sortCondition ref="A4:A13"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:W3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,69 +1234,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -646,360 +1372,442 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2">
-        <v>100</v>
-      </c>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3">
-        <v>100</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
+        <v>100</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>93</v>
-      </c>
-      <c r="G6" s="2">
-        <v>86</v>
-      </c>
-      <c r="H6" s="2">
-        <v>96</v>
-      </c>
-      <c r="I6" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" s="2">
-        <v>90</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2">
+        <v>96</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>90</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2">
-        <v>96</v>
-      </c>
-      <c r="G7" s="2">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2">
-        <v>96</v>
-      </c>
-      <c r="I7" s="2">
-        <v>96</v>
-      </c>
-      <c r="J7" s="5">
-        <v>86</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2">
+        <v>96</v>
+      </c>
+      <c r="J8" s="5">
+        <v>86</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2">
-        <v>96</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>93</v>
-      </c>
-      <c r="H8" s="2">
-        <v>93</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2">
+        <v>93</v>
+      </c>
+      <c r="I9" s="5">
         <v>83</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>84</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>93</v>
-      </c>
-      <c r="G9" s="5">
-        <v>93</v>
-      </c>
-      <c r="H9" s="2">
-        <v>90</v>
-      </c>
-      <c r="I9" s="2">
-        <v>96</v>
-      </c>
-      <c r="J9" s="2">
-        <v>93</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>93</v>
+      </c>
+      <c r="G10" s="5">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2">
+        <v>96</v>
+      </c>
+      <c r="J10" s="2">
+        <v>93</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2">
-        <v>96</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100</v>
-      </c>
-      <c r="H10" s="2">
-        <v>93</v>
-      </c>
-      <c r="I10" s="2">
-        <v>90</v>
-      </c>
-      <c r="J10" s="2">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>93</v>
+      </c>
+      <c r="I11" s="2">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2">
+        <v>90</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
-        <v>96</v>
-      </c>
-      <c r="G11" s="2">
-        <v>96</v>
-      </c>
-      <c r="H11" s="3">
-        <v>93</v>
-      </c>
-      <c r="I11" s="2">
-        <v>90</v>
-      </c>
-      <c r="J11" s="2">
-        <v>86</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2">
+        <v>96</v>
+      </c>
+      <c r="H12" s="3">
+        <v>93</v>
+      </c>
+      <c r="I12" s="2">
+        <v>90</v>
+      </c>
+      <c r="J12" s="2">
+        <v>86</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
-        <v>100</v>
-      </c>
-      <c r="C12" s="2">
-        <v>96</v>
-      </c>
-      <c r="D12" s="5">
-        <v>96</v>
-      </c>
-      <c r="E12" s="2">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2">
-        <v>93</v>
-      </c>
-      <c r="H12" s="2">
-        <v>86</v>
-      </c>
-      <c r="I12" s="2">
-        <v>90</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="B13" s="5">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>96</v>
+      </c>
+      <c r="D13" s="5">
+        <v>96</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2">
+        <v>86</v>
+      </c>
+      <c r="I13" s="2">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2">
         <v>80</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1012,8 +1820,16 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1033,8 +1849,12 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1118,8 +1938,8 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J12">
-    <sortCondition ref="A4:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
+    <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="B2:J2"/>
@@ -1134,13 +1954,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,69 +1969,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1287,7 +2107,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1552,234 +2372,6 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3">
-        <v>93</v>
-      </c>
-      <c r="D13" s="3">
-        <v>93</v>
-      </c>
-      <c r="E13" s="2">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2">
-        <v>95</v>
-      </c>
-      <c r="G13" s="3">
-        <v>86</v>
-      </c>
-      <c r="H13" s="2">
-        <v>90</v>
-      </c>
-      <c r="I13" s="2">
-        <v>100</v>
-      </c>
-      <c r="J13" s="9">
-        <v>93</v>
-      </c>
-      <c r="K13" s="8">
-        <v>95</v>
-      </c>
-      <c r="L13" s="8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2">
-        <v>93</v>
-      </c>
-      <c r="C14" s="2">
-        <v>96</v>
-      </c>
-      <c r="D14" s="5">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2">
-        <v>86</v>
-      </c>
-      <c r="F14" s="2">
-        <v>90</v>
-      </c>
-      <c r="G14" s="5">
-        <v>96</v>
-      </c>
-      <c r="H14" s="2">
-        <v>90</v>
-      </c>
-      <c r="I14" s="2">
-        <v>86</v>
-      </c>
-      <c r="J14" s="8">
-        <v>90</v>
-      </c>
-      <c r="K14" s="8">
-        <v>90</v>
-      </c>
-      <c r="L14" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2">
-        <v>86</v>
-      </c>
-      <c r="D15" s="2">
-        <v>93</v>
-      </c>
-      <c r="E15" s="2">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2">
-        <v>96</v>
-      </c>
-      <c r="G15" s="2">
-        <v>93</v>
-      </c>
-      <c r="H15" s="5">
-        <v>96</v>
-      </c>
-      <c r="I15" s="2">
-        <v>93</v>
-      </c>
-      <c r="J15" s="8">
-        <v>93</v>
-      </c>
-      <c r="K15" s="8">
-        <v>90</v>
-      </c>
-      <c r="L15" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
-        <v>100</v>
-      </c>
-      <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3">
-        <v>96</v>
-      </c>
-      <c r="F16" s="3">
-        <v>100</v>
-      </c>
-      <c r="G16" s="2">
-        <v>96</v>
-      </c>
-      <c r="H16" s="3">
-        <v>100</v>
-      </c>
-      <c r="I16" s="5">
-        <v>96</v>
-      </c>
-      <c r="J16" s="10">
-        <v>93</v>
-      </c>
-      <c r="K16" s="8">
-        <v>96</v>
-      </c>
-      <c r="L16" s="9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2">
-        <v>90</v>
-      </c>
-      <c r="D17" s="2">
-        <v>96</v>
-      </c>
-      <c r="E17" s="2">
-        <v>90</v>
-      </c>
-      <c r="F17" s="2">
-        <v>93</v>
-      </c>
-      <c r="G17" s="2">
-        <v>96</v>
-      </c>
-      <c r="H17" s="2">
-        <v>90</v>
-      </c>
-      <c r="I17" s="2">
-        <v>96</v>
-      </c>
-      <c r="J17" s="11">
-        <v>90</v>
-      </c>
-      <c r="K17" s="10">
-        <v>90</v>
-      </c>
-      <c r="L17" s="10">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2">
-        <v>90</v>
-      </c>
-      <c r="C18" s="2">
-        <v>86</v>
-      </c>
-      <c r="D18" s="2">
-        <v>90</v>
-      </c>
-      <c r="E18" s="5">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2">
-        <v>86</v>
-      </c>
-      <c r="G18" s="2">
-        <v>90</v>
-      </c>
-      <c r="H18" s="2">
-        <v>86</v>
-      </c>
-      <c r="I18" s="3">
-        <v>86</v>
-      </c>
-      <c r="J18" s="11">
-        <v>86</v>
-      </c>
-      <c r="K18" s="9">
-        <v>93</v>
-      </c>
-      <c r="L18" s="8">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
@@ -1798,16 +2390,399 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BD0971-5C33-4ED0-84E6-9697F72A0AB6}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:J3" si="0">D3+1</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:S3" si="1">M3+1</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3">
+        <v>93</v>
+      </c>
+      <c r="E4" s="2">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2">
+        <v>95</v>
+      </c>
+      <c r="G4" s="3">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+      <c r="J4" s="8">
+        <v>93</v>
+      </c>
+      <c r="K4" s="7">
+        <v>95</v>
+      </c>
+      <c r="L4" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" s="5">
+        <v>96</v>
+      </c>
+      <c r="H5" s="2">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2">
+        <v>86</v>
+      </c>
+      <c r="J5" s="7">
+        <v>90</v>
+      </c>
+      <c r="K5" s="7">
+        <v>90</v>
+      </c>
+      <c r="L5" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2">
+        <v>93</v>
+      </c>
+      <c r="H6" s="5">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2">
+        <v>93</v>
+      </c>
+      <c r="J6" s="7">
+        <v>93</v>
+      </c>
+      <c r="K6" s="7">
+        <v>90</v>
+      </c>
+      <c r="L6" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>96</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>96</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
+        <v>96</v>
+      </c>
+      <c r="J7" s="9">
+        <v>93</v>
+      </c>
+      <c r="K7" s="7">
+        <v>96</v>
+      </c>
+      <c r="L7" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2">
+        <v>96</v>
+      </c>
+      <c r="J8" s="10">
+        <v>90</v>
+      </c>
+      <c r="K8" s="9">
+        <v>90</v>
+      </c>
+      <c r="L8" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2">
+        <v>86</v>
+      </c>
+      <c r="I9" s="3">
+        <v>86</v>
+      </c>
+      <c r="J9" s="10">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8">
+        <v>93</v>
+      </c>
+      <c r="L9" s="7">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:W3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F136A82-289B-4CA0-AE9C-4F51FC531C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696E45C-3952-4888-A3D6-AF759DA7BEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="-11640" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
-    <sheet name="الأربعاء" sheetId="1" r:id="rId2"/>
-    <sheet name="الخميس" sheetId="2" r:id="rId3"/>
-    <sheet name="الجمعة" sheetId="4" r:id="rId4"/>
+    <sheet name="الثلاثاء" sheetId="6" r:id="rId2"/>
+    <sheet name="الأربعاء" sheetId="1" r:id="rId3"/>
+    <sheet name="الخميس" sheetId="2" r:id="rId4"/>
+    <sheet name="الجمعة" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>اسم</t>
   </si>
@@ -144,9 +145,6 @@
     <t>Zufar</t>
   </si>
   <si>
-    <t>Amar</t>
-  </si>
-  <si>
     <t>Kamil</t>
   </si>
   <si>
@@ -162,7 +160,31 @@
     <t>Fahri</t>
   </si>
   <si>
-    <t>Selasa</t>
+    <t>Akmal</t>
+  </si>
+  <si>
+    <t>Ammar</t>
+  </si>
+  <si>
+    <t>Idris</t>
+  </si>
+  <si>
+    <t>Ifroyim</t>
+  </si>
+  <si>
+    <t>Kholis</t>
+  </si>
+  <si>
+    <t>Fahrezy</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>Syahid</t>
+  </si>
+  <si>
+    <t>Rizki</t>
   </si>
 </sst>
 </file>
@@ -220,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -554,69 +582,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -692,11 +720,11 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="12"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7">
         <v>100</v>
@@ -731,7 +759,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="9">
         <v>90</v>
@@ -801,7 +829,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
@@ -961,7 +989,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="7">
         <v>90</v>
@@ -1220,12 +1248,800 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
+  <dimension ref="A1:Y21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:J3" si="0">D3+1</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:S3" si="1">M3+1</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2">
+        <v>96</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>96</v>
+      </c>
+      <c r="H4" s="2">
+        <v>96</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3">
+        <v>96</v>
+      </c>
+      <c r="G5" s="3">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2">
+        <v>86</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2">
+        <v>96</v>
+      </c>
+      <c r="H6" s="2">
+        <v>86</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2">
+        <v>86</v>
+      </c>
+      <c r="G7" s="5">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2">
+        <v>86</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2">
+        <v>93</v>
+      </c>
+      <c r="H8" s="3">
+        <v>96</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" s="5">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90</v>
+      </c>
+      <c r="F10" s="5">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2">
+        <v>93</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2">
+        <v>93</v>
+      </c>
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>93</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>93</v>
+      </c>
+      <c r="F12" s="2">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2">
+        <v>93</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
+    <sortCondition ref="A4:A12"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:W3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,69 +2050,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1372,11 +2188,11 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="12"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1849,12 +2665,8 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1954,7 +2766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W11"/>
   <sheetViews>
@@ -1969,69 +2781,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2107,7 +2919,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="12"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2390,7 +3202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:W9"/>
   <sheetViews>
@@ -2405,69 +3217,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2543,7 +3355,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="12"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696E45C-3952-4888-A3D6-AF759DA7BEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E88F3-11F5-4126-AE5E-2272DF9B1FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="-11640" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
@@ -2768,11 +2768,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,13 +2946,45 @@
       <c r="H4" s="2">
         <v>86</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="I4" s="2">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" s="2">
+        <v>83</v>
+      </c>
+      <c r="L4" s="5">
+        <v>90</v>
+      </c>
+      <c r="M4" s="2">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>90</v>
+      </c>
+      <c r="P4" s="7">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>86</v>
+      </c>
+      <c r="R4" s="7">
+        <v>90</v>
+      </c>
+      <c r="S4" s="7">
+        <v>90</v>
+      </c>
+      <c r="T4" s="7">
+        <v>87</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2979,13 +3011,45 @@
       <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" s="3">
+        <v>96</v>
+      </c>
+      <c r="L5" s="3">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2">
+        <v>93</v>
+      </c>
+      <c r="N5" s="3">
+        <v>96</v>
+      </c>
+      <c r="O5" s="3">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>93</v>
+      </c>
+      <c r="R5" s="7">
+        <v>93</v>
+      </c>
+      <c r="S5" s="7">
+        <v>83</v>
+      </c>
+      <c r="T5" s="8">
+        <v>83</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3012,13 +3076,45 @@
       <c r="H6" s="2">
         <v>93</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="I6" s="2">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2">
+        <v>90</v>
+      </c>
+      <c r="L6" s="2">
+        <v>86</v>
+      </c>
+      <c r="M6" s="2">
+        <v>93</v>
+      </c>
+      <c r="N6" s="2">
+        <v>93</v>
+      </c>
+      <c r="O6" s="2">
+        <v>96</v>
+      </c>
+      <c r="P6" s="7">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>93</v>
+      </c>
+      <c r="R6" s="7">
+        <v>93</v>
+      </c>
+      <c r="S6" s="8">
+        <v>93</v>
+      </c>
+      <c r="T6" s="7">
+        <v>83</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3045,13 +3141,45 @@
       <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>96</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5">
+        <v>86</v>
+      </c>
+      <c r="N7" s="2">
+        <v>96</v>
+      </c>
+      <c r="O7" s="5">
+        <v>93</v>
+      </c>
+      <c r="P7" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>93</v>
+      </c>
+      <c r="R7" s="7">
+        <v>96</v>
+      </c>
+      <c r="S7" s="7">
+        <v>100</v>
+      </c>
+      <c r="T7" s="7">
+        <v>100</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3078,13 +3206,43 @@
       <c r="H8" s="2">
         <v>93</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="I8" s="2">
+        <v>90</v>
+      </c>
+      <c r="J8" s="3">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2">
+        <v>86</v>
+      </c>
+      <c r="L8" s="2">
+        <v>83</v>
+      </c>
+      <c r="M8" s="2">
+        <v>83</v>
+      </c>
+      <c r="N8" s="5">
+        <v>80</v>
+      </c>
+      <c r="O8" s="2">
+        <v>86</v>
+      </c>
+      <c r="P8" s="7">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>86</v>
+      </c>
+      <c r="R8" s="9">
+        <v>83</v>
+      </c>
+      <c r="S8" s="9">
+        <v>86</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3118,6 +3276,14 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3144,13 +3310,43 @@
       <c r="H10" s="2">
         <v>86</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="I10" s="5">
+        <v>80</v>
+      </c>
+      <c r="J10" s="5">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2">
+        <v>80</v>
+      </c>
+      <c r="L10" s="2">
+        <v>80</v>
+      </c>
+      <c r="M10" s="3">
+        <v>83</v>
+      </c>
+      <c r="N10" s="2">
+        <v>83</v>
+      </c>
+      <c r="O10" s="2">
+        <v>83</v>
+      </c>
+      <c r="P10" s="8">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>83</v>
+      </c>
+      <c r="R10" s="8">
+        <v>86</v>
+      </c>
+      <c r="S10" s="7">
+        <v>93</v>
+      </c>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3177,13 +3373,65 @@
       <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="I11" s="2">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2">
+        <v>93</v>
+      </c>
+      <c r="K11" s="2">
+        <v>93</v>
+      </c>
+      <c r="L11" s="2">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2">
+        <v>96</v>
+      </c>
+      <c r="N11" s="2">
+        <v>100</v>
+      </c>
+      <c r="O11" s="2">
+        <v>100</v>
+      </c>
+      <c r="P11" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>96</v>
+      </c>
+      <c r="R11" s="7">
+        <v>96</v>
+      </c>
+      <c r="S11" s="7">
+        <v>90</v>
+      </c>
+      <c r="T11" s="7">
+        <v>87</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E88F3-11F5-4126-AE5E-2272DF9B1FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8CAA0-64C9-44D5-B3B3-1952D8C0D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="-11640" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>اسم</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Rizki</t>
+  </si>
+  <si>
+    <t>Safaraz</t>
+  </si>
+  <si>
+    <t>Nayla</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,69 +591,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -720,7 +729,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1262,69 +1271,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1400,7 +1409,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -2050,69 +2059,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2188,7 +2197,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2770,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T10" sqref="T10"/>
     </sheetView>
@@ -2781,69 +2790,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2919,7 +2928,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3452,11 +3461,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,70 +3473,70 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3603,9 +3612,9 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="15"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -3642,198 +3651,415 @@
       <c r="L4" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="7">
+        <v>96</v>
+      </c>
+      <c r="O4" s="7">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>86</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2">
+        <v>86</v>
+      </c>
+      <c r="I5" s="3">
+        <v>86</v>
+      </c>
+      <c r="J5" s="10">
+        <v>86</v>
+      </c>
+      <c r="K5" s="8">
+        <v>93</v>
+      </c>
+      <c r="L5" s="7">
+        <v>100</v>
+      </c>
+      <c r="M5" s="7">
+        <v>90</v>
+      </c>
+      <c r="N5" s="7">
+        <v>80</v>
+      </c>
+      <c r="O5" s="7">
+        <v>80</v>
+      </c>
+      <c r="P5" s="7">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>86</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>96</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>96</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5">
+        <v>96</v>
+      </c>
+      <c r="J6" s="9">
+        <v>93</v>
+      </c>
+      <c r="K6" s="7">
+        <v>96</v>
+      </c>
+      <c r="L6" s="8">
+        <v>93</v>
+      </c>
+      <c r="M6" s="7">
+        <v>93</v>
+      </c>
+      <c r="N6" s="9">
+        <v>100</v>
+      </c>
+      <c r="O6" s="7">
+        <v>83</v>
+      </c>
+      <c r="P6" s="7">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>86</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2">
-        <v>96</v>
-      </c>
-      <c r="D5" s="5">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2">
-        <v>86</v>
-      </c>
-      <c r="F5" s="2">
-        <v>90</v>
-      </c>
-      <c r="G5" s="5">
-        <v>96</v>
-      </c>
-      <c r="H5" s="2">
-        <v>90</v>
-      </c>
-      <c r="I5" s="2">
-        <v>86</v>
-      </c>
-      <c r="J5" s="7">
-        <v>90</v>
-      </c>
-      <c r="K5" s="7">
-        <v>90</v>
-      </c>
-      <c r="L5" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="2">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2">
+        <v>96</v>
+      </c>
+      <c r="D7" s="5">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2">
+        <v>90</v>
+      </c>
+      <c r="G7" s="5">
+        <v>96</v>
+      </c>
+      <c r="H7" s="2">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2">
+        <v>86</v>
+      </c>
+      <c r="J7" s="7">
+        <v>90</v>
+      </c>
+      <c r="K7" s="7">
+        <v>90</v>
+      </c>
+      <c r="L7" s="7">
+        <v>90</v>
+      </c>
+      <c r="M7" s="7">
+        <v>83</v>
+      </c>
+      <c r="N7" s="7">
+        <v>90</v>
+      </c>
+      <c r="O7" s="7">
+        <v>86</v>
+      </c>
+      <c r="P7" s="7">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>90</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>90</v>
+      </c>
+      <c r="N8" s="7">
+        <v>96</v>
+      </c>
+      <c r="O8" s="7">
+        <v>96</v>
+      </c>
+      <c r="P8" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>96</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2">
+        <v>96</v>
+      </c>
+      <c r="J9" s="10">
+        <v>90</v>
+      </c>
+      <c r="K9" s="9">
+        <v>90</v>
+      </c>
+      <c r="L9" s="9">
+        <v>83</v>
+      </c>
+      <c r="M9" s="9">
+        <v>96</v>
+      </c>
+      <c r="N9" s="7">
+        <v>86</v>
+      </c>
+      <c r="O9" s="7">
+        <v>86</v>
+      </c>
+      <c r="P9" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>86</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8">
+        <v>93</v>
+      </c>
+      <c r="N10" s="8">
+        <v>96</v>
+      </c>
+      <c r="O10" s="8">
+        <v>100</v>
+      </c>
+      <c r="P10" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>96</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B11" s="5">
         <v>83</v>
       </c>
-      <c r="C6" s="2">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2">
-        <v>93</v>
-      </c>
-      <c r="E6" s="2">
-        <v>86</v>
-      </c>
-      <c r="F6" s="2">
-        <v>96</v>
-      </c>
-      <c r="G6" s="2">
-        <v>93</v>
-      </c>
-      <c r="H6" s="5">
-        <v>96</v>
-      </c>
-      <c r="I6" s="2">
-        <v>93</v>
-      </c>
-      <c r="J6" s="7">
-        <v>93</v>
-      </c>
-      <c r="K6" s="7">
-        <v>90</v>
-      </c>
-      <c r="L6" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>96</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2">
-        <v>96</v>
-      </c>
-      <c r="H7" s="3">
-        <v>100</v>
-      </c>
-      <c r="I7" s="5">
-        <v>96</v>
-      </c>
-      <c r="J7" s="9">
-        <v>93</v>
-      </c>
-      <c r="K7" s="7">
-        <v>96</v>
-      </c>
-      <c r="L7" s="8">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2">
-        <v>96</v>
-      </c>
-      <c r="C8" s="2">
-        <v>90</v>
-      </c>
-      <c r="D8" s="2">
-        <v>96</v>
-      </c>
-      <c r="E8" s="2">
-        <v>90</v>
-      </c>
-      <c r="F8" s="2">
-        <v>93</v>
-      </c>
-      <c r="G8" s="2">
-        <v>96</v>
-      </c>
-      <c r="H8" s="2">
-        <v>90</v>
-      </c>
-      <c r="I8" s="2">
-        <v>96</v>
-      </c>
-      <c r="J8" s="10">
-        <v>90</v>
-      </c>
-      <c r="K8" s="9">
-        <v>90</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="C11" s="2">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2">
+        <v>93</v>
+      </c>
+      <c r="H11" s="5">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2">
+        <v>93</v>
+      </c>
+      <c r="J11" s="7">
+        <v>93</v>
+      </c>
+      <c r="K11" s="7">
+        <v>90</v>
+      </c>
+      <c r="L11" s="7">
+        <v>90</v>
+      </c>
+      <c r="M11" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2">
-        <v>90</v>
-      </c>
-      <c r="C9" s="2">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2">
-        <v>90</v>
-      </c>
-      <c r="E9" s="5">
-        <v>90</v>
-      </c>
-      <c r="F9" s="2">
-        <v>86</v>
-      </c>
-      <c r="G9" s="2">
-        <v>90</v>
-      </c>
-      <c r="H9" s="2">
-        <v>86</v>
-      </c>
-      <c r="I9" s="3">
-        <v>86</v>
-      </c>
-      <c r="J9" s="10">
-        <v>86</v>
-      </c>
-      <c r="K9" s="8">
-        <v>93</v>
-      </c>
-      <c r="L9" s="7">
-        <v>100</v>
-      </c>
+      <c r="N11" s="7">
+        <v>83</v>
+      </c>
+      <c r="O11" s="9">
+        <v>100</v>
+      </c>
+      <c r="P11" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>86</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N11">
+    <sortCondition ref="A4:A11"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:W1"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8CAA0-64C9-44D5-B3B3-1952D8C0D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE52954A-7872-491F-B7F5-5C737A27A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="-11640" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,9 +583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,11 +762,21 @@
       <c r="I4" s="2">
         <v>96</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="6"/>
+      <c r="J4" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -794,11 +807,21 @@
       <c r="I5" s="2">
         <v>100</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100</v>
+      </c>
+      <c r="N5" s="2">
+        <v>96</v>
+      </c>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -829,11 +852,21 @@
       <c r="I6" s="2">
         <v>90</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="J6" s="2">
+        <v>80</v>
+      </c>
+      <c r="K6" s="2">
+        <v>86</v>
+      </c>
+      <c r="L6" s="2">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2">
+        <v>80</v>
+      </c>
+      <c r="N6" s="2">
+        <v>80</v>
+      </c>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -864,11 +897,21 @@
       <c r="I7" s="2">
         <v>93</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="J7" s="2">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2">
+        <v>90</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -899,11 +942,21 @@
       <c r="I8" s="2">
         <v>93</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="J8" s="2">
+        <v>90</v>
+      </c>
+      <c r="K8" s="5">
+        <v>100</v>
+      </c>
+      <c r="L8" s="2">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2">
+        <v>100</v>
+      </c>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -934,11 +987,21 @@
       <c r="I9" s="2">
         <v>100</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>96</v>
+      </c>
+      <c r="L9" s="2">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -979,11 +1042,21 @@
       <c r="I10" s="2">
         <v>90</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="J10" s="2">
+        <v>90</v>
+      </c>
+      <c r="K10" s="3">
+        <v>93</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" s="5">
+        <v>80</v>
+      </c>
+      <c r="N10" s="2">
+        <v>100</v>
+      </c>
       <c r="O10" s="11"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
@@ -1024,11 +1097,21 @@
       <c r="I11" s="9">
         <v>80</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="J11" s="9">
+        <v>93</v>
+      </c>
+      <c r="K11" s="7">
+        <v>83</v>
+      </c>
+      <c r="L11" s="7">
+        <v>80</v>
+      </c>
+      <c r="M11" s="7">
+        <v>90</v>
+      </c>
+      <c r="N11" s="7">
+        <v>90</v>
+      </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -1069,11 +1152,21 @@
       <c r="I12" s="8">
         <v>83</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="J12" s="8">
+        <v>90</v>
+      </c>
+      <c r="K12" s="7">
+        <v>80</v>
+      </c>
+      <c r="L12" s="9">
+        <v>80</v>
+      </c>
+      <c r="M12" s="7">
+        <v>86</v>
+      </c>
+      <c r="N12" s="7">
+        <v>83</v>
+      </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -1114,11 +1207,19 @@
       <c r="I13" s="7">
         <v>90</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="J13" s="7">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7">
+        <v>83</v>
+      </c>
+      <c r="L13" s="7">
+        <v>83</v>
+      </c>
+      <c r="M13" s="8">
+        <v>93</v>
+      </c>
+      <c r="N13" s="17"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -3463,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE52954A-7872-491F-B7F5-5C737A27A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F841B2-1471-4999-9E04-1CA6046317E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -295,11 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
@@ -594,69 +594,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1219,7 +1219,7 @@
       <c r="M13" s="8">
         <v>93</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -1361,9 +1361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,69 +1372,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -1537,13 +1537,27 @@
       <c r="H4" s="2">
         <v>96</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="I4" s="2">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2">
+        <v>86</v>
+      </c>
+      <c r="L4" s="2">
+        <v>80</v>
+      </c>
+      <c r="M4" s="2">
+        <v>90</v>
+      </c>
+      <c r="N4" s="7">
+        <v>96</v>
+      </c>
+      <c r="O4" s="2">
+        <v>93</v>
+      </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -1580,13 +1594,27 @@
       <c r="H5" s="2">
         <v>86</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="I5" s="2">
+        <v>86</v>
+      </c>
+      <c r="J5" s="3">
+        <v>90</v>
+      </c>
+      <c r="K5" s="3">
+        <v>86</v>
+      </c>
+      <c r="L5" s="3">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2">
+        <v>83</v>
+      </c>
+      <c r="N5" s="2">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3">
+        <v>90</v>
+      </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -1666,13 +1694,27 @@
       <c r="H7" s="2">
         <v>86</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="I7" s="2">
+        <v>80</v>
+      </c>
+      <c r="J7" s="2">
+        <v>93</v>
+      </c>
+      <c r="K7" s="5">
+        <v>90</v>
+      </c>
+      <c r="L7" s="5">
+        <v>80</v>
+      </c>
+      <c r="M7" s="2">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2">
+        <v>80</v>
+      </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -1709,13 +1751,27 @@
       <c r="H8" s="3">
         <v>96</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="I8" s="3">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2">
+        <v>90</v>
+      </c>
+      <c r="L8" s="2">
+        <v>90</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>90</v>
+      </c>
+      <c r="O8" s="2">
+        <v>96</v>
+      </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -1751,13 +1807,27 @@
       <c r="H9" s="5">
         <v>80</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="I9" s="2">
+        <v>86</v>
+      </c>
+      <c r="J9" s="5">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2">
+        <v>90</v>
+      </c>
+      <c r="M9" s="2">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>83</v>
+      </c>
+      <c r="O9" s="2">
+        <v>93</v>
+      </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -1793,13 +1863,27 @@
       <c r="H10" s="2">
         <v>93</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="I10" s="5">
+        <v>93</v>
+      </c>
+      <c r="J10" s="2">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2">
+        <v>90</v>
+      </c>
+      <c r="L10" s="2">
+        <v>90</v>
+      </c>
+      <c r="M10" s="3">
+        <v>86</v>
+      </c>
+      <c r="N10" s="2">
+        <v>83</v>
+      </c>
+      <c r="O10" s="2">
+        <v>86</v>
+      </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -1835,13 +1919,27 @@
       <c r="H11" s="2">
         <v>100</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="I11" s="2">
+        <v>96</v>
+      </c>
+      <c r="J11" s="2">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2">
+        <v>83</v>
+      </c>
+      <c r="L11" s="2">
+        <v>93</v>
+      </c>
+      <c r="M11" s="5">
+        <v>96</v>
+      </c>
+      <c r="N11" s="5">
+        <v>100</v>
+      </c>
+      <c r="O11" s="5">
+        <v>100</v>
+      </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -1877,13 +1975,27 @@
       <c r="H12" s="2">
         <v>93</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="I12" s="2">
+        <v>93</v>
+      </c>
+      <c r="J12" s="2">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2">
+        <v>90</v>
+      </c>
+      <c r="L12" s="2">
+        <v>83</v>
+      </c>
+      <c r="M12" s="2">
+        <v>86</v>
+      </c>
+      <c r="N12" s="2">
+        <v>86</v>
+      </c>
+      <c r="O12" s="2">
+        <v>90</v>
+      </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
@@ -2160,69 +2272,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2298,7 +2410,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2891,69 +3003,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3029,7 +3141,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3575,69 +3687,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3713,7 +3825,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F841B2-1471-4999-9E04-1CA6046317E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9F8C67-0175-4DA5-BD68-D41373B6F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>اسم</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Nayla</t>
+  </si>
+  <si>
+    <t>١٠-</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +302,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,9 +1367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O11" sqref="O11"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,9 +2267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,16 +2431,36 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="K4" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" s="2">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+      <c r="O4" s="5">
+        <v>96</v>
+      </c>
+      <c r="P4" s="7">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>100</v>
+      </c>
+      <c r="R4" s="7">
+        <v>100</v>
+      </c>
+      <c r="S4" s="7">
+        <v>96</v>
+      </c>
+      <c r="T4" s="7">
+        <v>95</v>
+      </c>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -2470,16 +2496,36 @@
       <c r="J5" s="2">
         <v>100</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100</v>
+      </c>
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+      <c r="O5" s="2">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>100</v>
+      </c>
+      <c r="R5" s="7">
+        <v>100</v>
+      </c>
+      <c r="S5" s="7">
+        <v>100</v>
+      </c>
+      <c r="T5" s="7">
+        <v>100</v>
+      </c>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
@@ -2515,16 +2561,36 @@
       <c r="J6" s="3">
         <v>100</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="K6" s="5">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2">
+        <v>100</v>
+      </c>
+      <c r="O6" s="2">
+        <v>100</v>
+      </c>
+      <c r="P6" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>100</v>
+      </c>
+      <c r="R6" s="8">
+        <v>100</v>
+      </c>
+      <c r="S6" s="7">
+        <v>100</v>
+      </c>
+      <c r="T6" s="7">
+        <v>100</v>
+      </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
@@ -2605,16 +2671,36 @@
       <c r="J8" s="5">
         <v>86</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="K8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2">
+        <v>96</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2">
+        <v>96</v>
+      </c>
+      <c r="O8" s="2">
+        <v>90</v>
+      </c>
+      <c r="P8" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>86</v>
+      </c>
+      <c r="R8" s="9">
+        <v>93</v>
+      </c>
+      <c r="S8" s="7">
+        <v>86</v>
+      </c>
+      <c r="T8" s="7">
+        <v>86</v>
+      </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
@@ -2650,16 +2736,36 @@
       <c r="J9" s="2">
         <v>84</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="K9" s="2">
+        <v>96</v>
+      </c>
+      <c r="L9" s="2">
+        <v>93</v>
+      </c>
+      <c r="M9" s="3">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>90</v>
+      </c>
+      <c r="O9" s="3">
+        <v>96</v>
+      </c>
+      <c r="P9" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>90</v>
+      </c>
+      <c r="R9" s="7">
+        <v>100</v>
+      </c>
+      <c r="S9" s="7">
+        <v>90</v>
+      </c>
+      <c r="T9" s="7">
+        <v>93</v>
+      </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
@@ -2695,16 +2801,36 @@
       <c r="J10" s="2">
         <v>93</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="2">
+        <v>100</v>
+      </c>
+      <c r="P10" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>100</v>
+      </c>
+      <c r="R10" s="7">
+        <v>100</v>
+      </c>
+      <c r="S10" s="8">
+        <v>100</v>
+      </c>
+      <c r="T10" s="8">
+        <v>100</v>
+      </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -2740,16 +2866,36 @@
       <c r="J11" s="2">
         <v>90</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="K11" s="2">
+        <v>93</v>
+      </c>
+      <c r="L11" s="2">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2">
+        <v>100</v>
+      </c>
+      <c r="O11" s="2">
+        <v>96</v>
+      </c>
+      <c r="P11" s="7">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>96</v>
+      </c>
+      <c r="R11" s="7">
+        <v>93</v>
+      </c>
+      <c r="S11" s="9">
+        <v>85</v>
+      </c>
+      <c r="T11" s="7">
+        <v>95</v>
+      </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
@@ -2785,16 +2931,36 @@
       <c r="J12" s="2">
         <v>86</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="K12" s="2">
+        <v>86</v>
+      </c>
+      <c r="L12" s="5">
+        <v>80</v>
+      </c>
+      <c r="M12" s="2">
+        <v>86</v>
+      </c>
+      <c r="N12" s="2">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2">
+        <v>83</v>
+      </c>
+      <c r="P12" s="8">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>93</v>
+      </c>
+      <c r="R12" s="7">
+        <v>86</v>
+      </c>
+      <c r="S12" s="7">
+        <v>83</v>
+      </c>
+      <c r="T12" s="7">
+        <v>91</v>
+      </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
@@ -2830,16 +2996,36 @@
       <c r="J13" s="2">
         <v>80</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" s="3">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2">
+        <v>100</v>
+      </c>
+      <c r="N13" s="5">
+        <v>100</v>
+      </c>
+      <c r="O13" s="2">
+        <v>100</v>
+      </c>
+      <c r="P13" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>100</v>
+      </c>
+      <c r="R13" s="7">
+        <v>96</v>
+      </c>
+      <c r="S13" s="7">
+        <v>100</v>
+      </c>
+      <c r="T13" s="7">
+        <v>100</v>
+      </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
@@ -3678,7 +3864,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="topRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9F8C67-0175-4DA5-BD68-D41373B6F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26B63D-8439-4EF0-AF6C-30599B1641CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -301,10 +301,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O11" sqref="O11"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,69 +600,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -1378,69 +1378,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -2267,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -2278,69 +2278,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2671,7 +2671,7 @@
       <c r="J8" s="5">
         <v>86</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="2">
@@ -3178,9 +3178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T10" sqref="T10"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,69 +3189,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3390,9 +3390,13 @@
       <c r="T4" s="7">
         <v>87</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
+      <c r="U4" s="7">
+        <v>87</v>
+      </c>
+      <c r="V4" s="7">
+        <v>87</v>
+      </c>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3455,9 +3459,13 @@
       <c r="T5" s="8">
         <v>83</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="U5" s="8">
+        <v>91</v>
+      </c>
+      <c r="V5" s="8">
+        <v>91</v>
+      </c>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3520,9 +3528,13 @@
       <c r="T6" s="7">
         <v>83</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+      <c r="U6" s="7">
+        <v>83</v>
+      </c>
+      <c r="V6" s="7">
+        <v>95</v>
+      </c>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3585,9 +3597,13 @@
       <c r="T7" s="7">
         <v>100</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="U7" s="7">
+        <v>100</v>
+      </c>
+      <c r="V7" s="7">
+        <v>100</v>
+      </c>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3647,10 +3663,16 @@
       <c r="S8" s="9">
         <v>86</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
+      <c r="T8" s="9">
+        <v>87</v>
+      </c>
+      <c r="U8" s="9">
+        <v>87</v>
+      </c>
+      <c r="V8" s="9">
+        <v>87</v>
+      </c>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3677,21 +3699,39 @@
       <c r="H9" s="5">
         <v>85</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="I9" s="2">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2">
+        <v>92</v>
+      </c>
+      <c r="L9" s="2">
+        <v>80</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2">
+        <v>82</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="T9" s="7">
+        <v>91</v>
+      </c>
+      <c r="U9" s="7">
+        <v>88</v>
+      </c>
+      <c r="V9" s="7">
+        <v>98</v>
+      </c>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3754,7 +3794,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3817,9 +3857,13 @@
       <c r="T11" s="7">
         <v>87</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="U11" s="7">
+        <v>91</v>
+      </c>
+      <c r="V11" s="7">
+        <v>91</v>
+      </c>
+      <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>
@@ -3863,8 +3907,8 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U14" sqref="U14"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,69 +3917,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4011,7 +4055,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26B63D-8439-4EF0-AF6C-30599B1641CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D8635-C342-4C1A-BDD1-FD0A685A8B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -3178,7 +3178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
@@ -3906,9 +3906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,9 +4109,15 @@
       <c r="Q4" s="7">
         <v>86</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="R4" s="7">
+        <v>90</v>
+      </c>
+      <c r="S4" s="7">
+        <v>90</v>
+      </c>
+      <c r="T4" s="7">
+        <v>89</v>
+      </c>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -4169,8 +4175,12 @@
       <c r="Q5" s="7">
         <v>86</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="R5" s="7">
+        <v>90</v>
+      </c>
+      <c r="S5" s="7">
+        <v>80</v>
+      </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -4229,9 +4239,15 @@
       <c r="Q6" s="9">
         <v>86</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="R6" s="7">
+        <v>90</v>
+      </c>
+      <c r="S6" s="9">
+        <v>93</v>
+      </c>
+      <c r="T6" s="7">
+        <v>95</v>
+      </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
@@ -4289,9 +4305,15 @@
       <c r="Q7" s="7">
         <v>90</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="R7" s="7">
+        <v>93</v>
+      </c>
+      <c r="S7" s="8">
+        <v>86</v>
+      </c>
+      <c r="T7" s="8">
+        <v>83</v>
+      </c>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
@@ -4376,8 +4398,12 @@
       <c r="Q9" s="7">
         <v>86</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="R9" s="8">
+        <v>96</v>
+      </c>
+      <c r="S9" s="7">
+        <v>86</v>
+      </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
@@ -4463,9 +4489,15 @@
       <c r="Q11" s="7">
         <v>86</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="R11" s="9">
+        <v>86</v>
+      </c>
+      <c r="S11" s="7">
+        <v>96</v>
+      </c>
+      <c r="T11" s="7">
+        <v>95</v>
+      </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D8635-C342-4C1A-BDD1-FD0A685A8B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C961D7-0296-474E-B367-7CEC1CC64F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -298,10 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -589,9 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,21 @@
       <c r="N4" s="2">
         <v>100</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="5">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+      <c r="R4" s="2">
+        <v>100</v>
+      </c>
+      <c r="S4" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -828,7 +842,21 @@
       <c r="N5" s="2">
         <v>96</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="2">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2">
+        <v>100</v>
+      </c>
+      <c r="S5" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -873,7 +901,21 @@
       <c r="N6" s="2">
         <v>80</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="2">
+        <v>86</v>
+      </c>
+      <c r="P6" s="2">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>86</v>
+      </c>
+      <c r="R6" s="2">
+        <v>90</v>
+      </c>
+      <c r="S6" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -918,7 +960,21 @@
       <c r="N7" s="2">
         <v>100</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="2">
+        <v>100</v>
+      </c>
+      <c r="P7" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2">
+        <v>93</v>
+      </c>
+      <c r="S7" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -963,7 +1019,21 @@
       <c r="N8" s="2">
         <v>100</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="2">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1008,11 +1078,21 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="O9" s="3">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="2">
+        <v>100</v>
+      </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
@@ -1063,11 +1143,21 @@
       <c r="N10" s="2">
         <v>100</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="O10" s="2">
+        <v>90</v>
+      </c>
+      <c r="P10" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>90</v>
+      </c>
+      <c r="R10" s="2">
+        <v>93</v>
+      </c>
+      <c r="S10" s="2">
+        <v>83</v>
+      </c>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -1118,11 +1208,17 @@
       <c r="N11" s="7">
         <v>90</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="O11" s="7">
+        <v>90</v>
+      </c>
+      <c r="P11" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>86</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -1173,11 +1269,21 @@
       <c r="N12" s="7">
         <v>83</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="O12" s="7">
+        <v>86</v>
+      </c>
+      <c r="P12" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>80</v>
+      </c>
+      <c r="R12" s="2">
+        <v>86</v>
+      </c>
+      <c r="S12" s="2">
+        <v>86</v>
+      </c>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
@@ -1225,12 +1331,24 @@
       <c r="M13" s="8">
         <v>93</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="N13" s="9">
+        <v>93</v>
+      </c>
+      <c r="O13" s="7">
+        <v>100</v>
+      </c>
+      <c r="P13" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>100</v>
+      </c>
+      <c r="R13" s="2">
+        <v>100</v>
+      </c>
+      <c r="S13" s="3">
+        <v>100</v>
+      </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
@@ -1368,8 +1486,8 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,8 +2386,8 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U5" sqref="U5"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,7 +2789,7 @@
       <c r="J8" s="5">
         <v>86</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="2">
@@ -3179,7 +3297,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -3906,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C961D7-0296-474E-B367-7CEC1CC64F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3AD2E8-7056-44AD-974E-E6B573058626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +305,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S16" sqref="S16"/>
     </sheetView>
@@ -1485,9 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,10 +1685,18 @@
       <c r="O4" s="2">
         <v>93</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="P4" s="2">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>93</v>
+      </c>
+      <c r="R4" s="2">
+        <v>96</v>
+      </c>
+      <c r="S4" s="2">
+        <v>96</v>
+      </c>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -1739,10 +1750,18 @@
       <c r="O5" s="3">
         <v>90</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="P5" s="2">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>96</v>
+      </c>
+      <c r="R5" s="2">
+        <v>83</v>
+      </c>
+      <c r="S5" s="2">
+        <v>83</v>
+      </c>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
@@ -1839,10 +1858,18 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="P7" s="2">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>86</v>
+      </c>
+      <c r="R7" s="2">
+        <v>80</v>
+      </c>
+      <c r="S7" s="2">
+        <v>93</v>
+      </c>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
@@ -1896,10 +1923,18 @@
       <c r="O8" s="2">
         <v>96</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="P8" s="3">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>93</v>
+      </c>
+      <c r="R8" s="3">
+        <v>90</v>
+      </c>
+      <c r="S8" s="2">
+        <v>96</v>
+      </c>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -1952,10 +1987,18 @@
       <c r="O9" s="2">
         <v>93</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="P9" s="5">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>68</v>
+      </c>
+      <c r="R9" s="2">
+        <v>83</v>
+      </c>
+      <c r="S9" s="2">
+        <v>86</v>
+      </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -2064,10 +2107,16 @@
       <c r="O11" s="5">
         <v>100</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="P11" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>96</v>
+      </c>
+      <c r="R11" s="5">
+        <v>100</v>
+      </c>
+      <c r="S11" s="19"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -2120,10 +2169,18 @@
       <c r="O12" s="2">
         <v>90</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="P12" s="2">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>90</v>
+      </c>
+      <c r="R12" s="2">
+        <v>86</v>
+      </c>
+      <c r="S12" s="3">
+        <v>93</v>
+      </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3AD2E8-7056-44AD-974E-E6B573058626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0FE31-3274-4824-8677-D719A4588267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>اسم</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Nayla</t>
-  </si>
-  <si>
-    <t>١٠-</t>
   </si>
 </sst>
 </file>
@@ -251,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,16 +295,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1214,8 @@
       <c r="Q11" s="2">
         <v>86</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -1488,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S11" sqref="S11"/>
     </sheetView>
@@ -2116,7 +2110,7 @@
       <c r="R11" s="5">
         <v>100</v>
       </c>
-      <c r="S11" s="19"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -2442,9 +2436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,9 +2630,15 @@
       <c r="T4" s="7">
         <v>95</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
+      <c r="U4" s="7">
+        <v>87</v>
+      </c>
+      <c r="V4" s="7">
+        <v>87</v>
+      </c>
+      <c r="W4" s="7">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -2701,9 +2701,15 @@
       <c r="T5" s="7">
         <v>100</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="U5" s="7">
+        <v>100</v>
+      </c>
+      <c r="V5" s="7">
+        <v>100</v>
+      </c>
+      <c r="W5" s="7">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -2801,9 +2807,15 @@
       <c r="J7" s="2">
         <v>90</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="13"/>
@@ -2811,9 +2823,15 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="U7" s="8">
+        <v>91</v>
+      </c>
+      <c r="V7" s="7">
+        <v>100</v>
+      </c>
+      <c r="W7" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2846,8 +2864,8 @@
       <c r="J8" s="5">
         <v>86</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>51</v>
+      <c r="K8" s="3">
+        <v>100</v>
       </c>
       <c r="L8" s="2">
         <v>96</v>
@@ -2876,9 +2894,15 @@
       <c r="T8" s="7">
         <v>86</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
+      <c r="U8" s="7">
+        <v>87</v>
+      </c>
+      <c r="V8" s="7">
+        <v>95</v>
+      </c>
+      <c r="W8" s="7">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -2941,9 +2965,15 @@
       <c r="T9" s="7">
         <v>93</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="U9" s="7">
+        <v>100</v>
+      </c>
+      <c r="V9" s="8">
+        <v>95</v>
+      </c>
+      <c r="W9" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -3006,9 +3036,15 @@
       <c r="T10" s="8">
         <v>100</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="U10" s="7">
+        <v>100</v>
+      </c>
+      <c r="V10" s="7">
+        <v>95</v>
+      </c>
+      <c r="W10" s="7">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -3071,9 +3107,15 @@
       <c r="T11" s="7">
         <v>95</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="U11" s="7">
+        <v>91</v>
+      </c>
+      <c r="V11" s="7">
+        <v>91</v>
+      </c>
+      <c r="W11" s="7">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -3136,9 +3178,15 @@
       <c r="T12" s="7">
         <v>91</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="U12" s="9">
+        <v>83</v>
+      </c>
+      <c r="V12" s="9">
+        <v>91</v>
+      </c>
+      <c r="W12" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -3201,9 +3249,15 @@
       <c r="T13" s="7">
         <v>100</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="U13" s="7">
+        <v>100</v>
+      </c>
+      <c r="V13" s="7">
+        <v>95</v>
+      </c>
+      <c r="W13" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0FE31-3274-4824-8677-D719A4588267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA5BF7-F667-4BBC-8A7C-A43E1889B578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1462,7 +1453,7 @@
       <c r="Y17" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E13">
+  <sortState ref="A4:E13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
@@ -2416,7 +2407,7 @@
       <c r="X21" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
+  <sortState ref="A4:A12">
     <sortCondition ref="A4:A12"/>
   </sortState>
   <mergeCells count="6">
@@ -2436,9 +2427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <selection pane="topRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="W7" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -3387,7 +3378,7 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
+  <sortState ref="A4:J13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
@@ -3407,9 +3398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+      <selection pane="topRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3616,9 @@
       <c r="V4" s="7">
         <v>87</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3694,7 +3687,9 @@
       <c r="V5" s="8">
         <v>91</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3763,7 +3758,9 @@
       <c r="V6" s="7">
         <v>95</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3832,7 +3829,9 @@
       <c r="V7" s="7">
         <v>100</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3901,7 +3900,9 @@
       <c r="V8" s="9">
         <v>87</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3960,7 +3961,9 @@
       <c r="V9" s="7">
         <v>98</v>
       </c>
-      <c r="W9" s="7"/>
+      <c r="W9" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4023,7 +4026,9 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4092,7 +4097,9 @@
       <c r="V11" s="7">
         <v>91</v>
       </c>
-      <c r="W11" s="7"/>
+      <c r="W11" s="7">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>
@@ -4115,7 +4122,7 @@
       <c r="W13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
+  <sortState ref="A4:A11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">
@@ -4761,7 +4768,7 @@
       <c r="X13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N11">
+  <sortState ref="A5:N11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0FE31-3274-4824-8677-D719A4588267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4904F-20C9-46C2-B5B9-F415CB5ABDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -2436,9 +2436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <selection pane="topRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3408,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -4135,9 +4135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,8 +4410,12 @@
       <c r="S5" s="7">
         <v>80</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="T5" s="7">
+        <v>91</v>
+      </c>
+      <c r="U5" s="7">
+        <v>95</v>
+      </c>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
@@ -4477,7 +4481,9 @@
       <c r="T6" s="7">
         <v>95</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="7">
+        <v>91</v>
+      </c>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
@@ -4543,7 +4549,9 @@
       <c r="T7" s="8">
         <v>83</v>
       </c>
-      <c r="U7" s="13"/>
+      <c r="U7" s="7">
+        <v>87</v>
+      </c>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
@@ -4567,10 +4575,18 @@
       <c r="Q8" s="7">
         <v>96</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="R8" s="7">
+        <v>96</v>
+      </c>
+      <c r="S8" s="7">
+        <v>86</v>
+      </c>
+      <c r="T8" s="7">
+        <v>89</v>
+      </c>
+      <c r="U8" s="8">
+        <v>86</v>
+      </c>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
@@ -4633,8 +4649,12 @@
       <c r="S9" s="7">
         <v>86</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+      <c r="T9" s="9">
+        <v>87</v>
+      </c>
+      <c r="U9" s="7">
+        <v>83</v>
+      </c>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -4727,7 +4747,9 @@
       <c r="T11" s="7">
         <v>95</v>
       </c>
-      <c r="U11" s="13"/>
+      <c r="U11" s="7">
+        <v>91</v>
+      </c>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4904F-20C9-46C2-B5B9-F415CB5ABDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6986E1-7456-4289-8C81-A871B2BDDC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -586,9 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S16" sqref="S16"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +854,9 @@
       <c r="S5" s="2">
         <v>100</v>
       </c>
+      <c r="T5" s="7">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1090,7 +1093,9 @@
       <c r="S9" s="2">
         <v>100</v>
       </c>
-      <c r="T9" s="13"/>
+      <c r="T9" s="8">
+        <v>100</v>
+      </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
@@ -1155,7 +1160,9 @@
       <c r="S10" s="2">
         <v>83</v>
       </c>
-      <c r="T10" s="13"/>
+      <c r="T10" s="7">
+        <v>100</v>
+      </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -1215,7 +1222,9 @@
         <v>86</v>
       </c>
       <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="S11" s="5">
+        <v>80</v>
+      </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -1346,7 +1355,9 @@
       <c r="S13" s="3">
         <v>100</v>
       </c>
-      <c r="T13" s="13"/>
+      <c r="T13" s="7">
+        <v>100</v>
+      </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
@@ -4135,9 +4146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6986E1-7456-4289-8C81-A871B2BDDC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C42C8A0-B776-434E-AA84-B10863CBF105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
@@ -1493,9 +1493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+      <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,8 +1702,12 @@
       <c r="S4" s="2">
         <v>96</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="T4" s="2">
+        <v>87</v>
+      </c>
+      <c r="U4" s="3">
+        <v>95</v>
+      </c>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -1875,8 +1879,12 @@
       <c r="S7" s="2">
         <v>93</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="T7" s="5">
+        <v>89</v>
+      </c>
+      <c r="U7" s="5">
+        <v>88</v>
+      </c>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -2186,8 +2194,12 @@
       <c r="S12" s="3">
         <v>93</v>
       </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="T12" s="3">
+        <v>83</v>
+      </c>
+      <c r="U12" s="2">
+        <v>87</v>
+      </c>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C42C8A0-B776-434E-AA84-B10863CBF105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA68AC2-7ACE-48C7-BBB1-58C52140413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>اسم</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Nayla</t>
+  </si>
+  <si>
+    <t>Word</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,6 +306,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
@@ -2457,11 +2464,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2476,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2497,8 +2504,19 @@
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>2</v>
@@ -2531,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -2609,8 +2627,35 @@
         <v>3</v>
       </c>
       <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
@@ -2663,7 +2708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2799,7 +2844,7 @@
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -2856,7 +2901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -2998,7 +3043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +3114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3140,7 +3185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3211,7 +3256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -3282,7 +3327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3307,7 +3352,7 @@
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3324,7 +3369,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3413,7 +3458,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
     <sortCondition ref="A4:A13"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="X1:AF1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="K2:S2"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA68AC2-7ACE-48C7-BBB1-58C52140413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C29EB4-BC3F-4352-B5E7-FC567F84FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -225,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,10 +310,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,69 +613,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -742,7 +751,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="18"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1511,69 +1520,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1649,7 +1658,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="18"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -2466,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
@@ -2477,80 +2486,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="20" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2626,32 +2635,32 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="19">
+      <c r="W3" s="20"/>
+      <c r="X3" s="18">
         <v>1</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <v>2</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="18">
         <v>3</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AA3" s="18">
         <v>4</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB3" s="18">
         <v>5</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="18">
         <v>6</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <v>7</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="18">
         <v>8</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="18">
         <v>9</v>
       </c>
     </row>
@@ -3487,69 +3496,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3625,7 +3634,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="18"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4204,9 +4213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,69 +4224,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4353,7 +4362,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="18"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -4416,9 +4425,15 @@
       <c r="T4" s="7">
         <v>89</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
+      <c r="U4" s="9">
+        <v>83</v>
+      </c>
+      <c r="V4" s="7">
+        <v>87</v>
+      </c>
+      <c r="W4" s="7">
+        <v>155</v>
+      </c>
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -4485,8 +4500,12 @@
       <c r="U5" s="7">
         <v>95</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="V5" s="7">
+        <v>83</v>
+      </c>
+      <c r="W5" s="7">
+        <v>40</v>
+      </c>
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -4553,8 +4572,12 @@
       <c r="U6" s="7">
         <v>91</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+      <c r="V6" s="7">
+        <v>95</v>
+      </c>
+      <c r="W6" s="7">
+        <v>100</v>
+      </c>
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -4621,8 +4644,12 @@
       <c r="U7" s="7">
         <v>87</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="V7" s="9">
+        <v>83</v>
+      </c>
+      <c r="W7" s="7">
+        <v>85</v>
+      </c>
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -4656,8 +4683,8 @@
       <c r="U8" s="8">
         <v>86</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -4724,8 +4751,12 @@
       <c r="U9" s="7">
         <v>83</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="V9" s="8">
+        <v>91</v>
+      </c>
+      <c r="W9" s="7">
+        <v>15</v>
+      </c>
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -4747,12 +4778,12 @@
       <c r="Q10" s="8">
         <v>96</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -4819,8 +4850,12 @@
       <c r="U11" s="7">
         <v>91</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="V11" s="7">
+        <v>97</v>
+      </c>
+      <c r="W11" s="7">
+        <v>70</v>
+      </c>
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C29EB4-BC3F-4352-B5E7-FC567F84FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA42CA-8A7C-453B-878C-BCBACE6B3465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1489,7 +1480,7 @@
       <c r="Y17" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E13">
+  <sortState ref="A4:E13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
@@ -2455,7 +2446,7 @@
       <c r="X21" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
+  <sortState ref="A4:A12">
     <sortCondition ref="A4:A12"/>
   </sortState>
   <mergeCells count="6">
@@ -3464,7 +3455,7 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
+  <sortState ref="A4:J13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="7">
@@ -3485,9 +3476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+      <selection pane="topRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,7 +3694,9 @@
       <c r="V4" s="7">
         <v>87</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3772,7 +3765,9 @@
       <c r="V5" s="8">
         <v>91</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3841,7 +3836,9 @@
       <c r="V6" s="7">
         <v>95</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3910,7 +3907,9 @@
       <c r="V7" s="7">
         <v>100</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3979,7 +3978,9 @@
       <c r="V8" s="9">
         <v>87</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4038,7 +4039,9 @@
       <c r="V9" s="7">
         <v>98</v>
       </c>
-      <c r="W9" s="7"/>
+      <c r="W9" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4101,7 +4104,9 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4170,7 +4175,9 @@
       <c r="V11" s="7">
         <v>91</v>
       </c>
-      <c r="W11" s="7"/>
+      <c r="W11" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>
@@ -4193,7 +4200,7 @@
       <c r="W13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
+  <sortState ref="A4:A11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">
@@ -4213,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -4887,7 +4894,7 @@
       <c r="X13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N11">
+  <sortState ref="A5:N11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C29EB4-BC3F-4352-B5E7-FC567F84FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D424AF8-CC65-4AAD-8376-CB925DDAAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -304,14 +304,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,9 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>93</v>
       </c>
       <c r="G4" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -808,9 +808,19 @@
       <c r="R4" s="2">
         <v>100</v>
       </c>
-      <c r="S4" s="2">
-        <v>100</v>
-      </c>
+      <c r="S4" s="7">
+        <v>100</v>
+      </c>
+      <c r="T4" s="7">
+        <v>100</v>
+      </c>
+      <c r="U4" s="7">
+        <v>100</v>
+      </c>
+      <c r="V4" s="7">
+        <v>100</v>
+      </c>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -867,12 +877,19 @@
       <c r="R5" s="2">
         <v>100</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="7">
         <v>100</v>
       </c>
       <c r="T5" s="7">
         <v>91</v>
       </c>
+      <c r="U5" s="7">
+        <v>95</v>
+      </c>
+      <c r="V5" s="7">
+        <v>100</v>
+      </c>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -920,7 +937,7 @@
       <c r="O6" s="2">
         <v>86</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>96</v>
       </c>
       <c r="Q6" s="2">
@@ -929,9 +946,19 @@
       <c r="R6" s="2">
         <v>90</v>
       </c>
-      <c r="S6" s="2">
-        <v>86</v>
-      </c>
+      <c r="S6" s="7">
+        <v>86</v>
+      </c>
+      <c r="T6" s="9">
+        <v>80</v>
+      </c>
+      <c r="U6" s="7">
+        <v>87</v>
+      </c>
+      <c r="V6" s="7">
+        <v>91</v>
+      </c>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -988,9 +1015,19 @@
       <c r="R7" s="2">
         <v>93</v>
       </c>
-      <c r="S7" s="2">
-        <v>100</v>
-      </c>
+      <c r="S7" s="7">
+        <v>100</v>
+      </c>
+      <c r="T7" s="7">
+        <v>90</v>
+      </c>
+      <c r="U7" s="7">
+        <v>93</v>
+      </c>
+      <c r="V7" s="7">
+        <v>91</v>
+      </c>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1047,9 +1084,19 @@
       <c r="R8" s="2">
         <v>100</v>
       </c>
-      <c r="S8" s="2">
-        <v>100</v>
-      </c>
+      <c r="S8" s="7">
+        <v>100</v>
+      </c>
+      <c r="T8" s="7">
+        <v>100</v>
+      </c>
+      <c r="U8" s="7">
+        <v>100</v>
+      </c>
+      <c r="V8" s="7">
+        <v>100</v>
+      </c>
+      <c r="W8" s="19"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1106,15 +1153,19 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="7">
         <v>100</v>
       </c>
       <c r="T9" s="8">
         <v>100</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="U9" s="7">
+        <v>95</v>
+      </c>
+      <c r="V9" s="7">
+        <v>95</v>
+      </c>
+      <c r="W9" s="19"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
@@ -1173,15 +1224,19 @@
       <c r="R10" s="2">
         <v>93</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="7">
         <v>83</v>
       </c>
       <c r="T10" s="7">
         <v>100</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="U10" s="7">
+        <v>100</v>
+      </c>
+      <c r="V10" s="7">
+        <v>90</v>
+      </c>
+      <c r="W10" s="19"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
@@ -1234,17 +1289,19 @@
       <c r="P11" s="2">
         <v>80</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="5">
         <v>86</v>
       </c>
       <c r="R11" s="16"/>
-      <c r="S11" s="5">
+      <c r="S11" s="9">
         <v>80</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="T11" s="7">
+        <v>83</v>
+      </c>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
@@ -1303,13 +1360,15 @@
       <c r="R12" s="2">
         <v>86</v>
       </c>
-      <c r="S12" s="2">
-        <v>86</v>
-      </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="S12" s="7">
+        <v>86</v>
+      </c>
+      <c r="T12" s="7">
+        <v>83</v>
+      </c>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
@@ -1354,7 +1413,7 @@
         <v>93</v>
       </c>
       <c r="N13" s="9">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O13" s="7">
         <v>100</v>
@@ -1368,15 +1427,19 @@
       <c r="R13" s="2">
         <v>100</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="8">
         <v>100</v>
       </c>
       <c r="T13" s="7">
         <v>100</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="U13" s="8">
+        <v>100</v>
+      </c>
+      <c r="V13" s="8">
+        <v>92</v>
+      </c>
+      <c r="W13" s="19"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
@@ -1399,11 +1462,11 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
@@ -1426,11 +1489,11 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
@@ -1453,11 +1516,11 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
@@ -1510,7 +1573,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -2145,7 +2208,7 @@
       <c r="R11" s="5">
         <v>100</v>
       </c>
-      <c r="S11" s="17"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -2477,7 +2540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,31 +2699,31 @@
         <v>3</v>
       </c>
       <c r="W3" s="20"/>
-      <c r="X3" s="18">
+      <c r="X3" s="17">
         <v>1</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="17">
         <v>2</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="17">
         <v>3</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="17">
         <v>4</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="17">
         <v>5</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="17">
         <v>6</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="17">
         <v>7</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="17">
         <v>8</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="17">
         <v>9</v>
       </c>
     </row>
@@ -3486,7 +3549,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -4213,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -4683,8 +4746,8 @@
       <c r="U8" s="8">
         <v>86</v>
       </c>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -4778,12 +4841,12 @@
       <c r="Q10" s="8">
         <v>96</v>
       </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D424AF8-CC65-4AAD-8376-CB925DDAAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F270193-346C-4F98-A5F9-E4B50DA50C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V12" sqref="V12"/>
     </sheetView>
@@ -1572,9 +1572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U7" sqref="U7"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1787,9 @@
       <c r="U4" s="3">
         <v>95</v>
       </c>
-      <c r="V4" s="12"/>
+      <c r="V4" s="2">
+        <v>83</v>
+      </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="13"/>
@@ -1964,7 +1966,9 @@
       <c r="U7" s="5">
         <v>88</v>
       </c>
-      <c r="V7" s="12"/>
+      <c r="V7" s="5">
+        <v>86</v>
+      </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="13"/>
@@ -2028,8 +2032,12 @@
         <v>96</v>
       </c>
       <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="2">
+        <v>83</v>
+      </c>
+      <c r="V8" s="2">
+        <v>87</v>
+      </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
     </row>
@@ -2210,8 +2218,12 @@
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="5">
+        <v>99</v>
+      </c>
+      <c r="V11" s="2">
+        <v>100</v>
+      </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
     </row>
@@ -2279,7 +2291,9 @@
       <c r="U12" s="2">
         <v>87</v>
       </c>
-      <c r="V12" s="12"/>
+      <c r="V12" s="3">
+        <v>91</v>
+      </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
     </row>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F270193-346C-4F98-A5F9-E4B50DA50C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051047E-DEEA-41BE-AFE3-80BA7328E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -1572,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
@@ -3562,9 +3562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+      <selection pane="topRight" activeCell="W6" sqref="W6:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,7 +3780,9 @@
       <c r="V4" s="7">
         <v>87</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3849,7 +3851,9 @@
       <c r="V5" s="8">
         <v>91</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3918,7 +3922,9 @@
       <c r="V6" s="7">
         <v>95</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3987,7 +3993,9 @@
       <c r="V7" s="7">
         <v>100</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4056,7 +4064,9 @@
       <c r="V8" s="9">
         <v>87</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4115,7 +4125,9 @@
       <c r="V9" s="7">
         <v>98</v>
       </c>
-      <c r="W9" s="7"/>
+      <c r="W9" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4178,7 +4190,9 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4247,7 +4261,9 @@
       <c r="V11" s="7">
         <v>91</v>
       </c>
-      <c r="W11" s="7"/>
+      <c r="W11" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051047E-DEEA-41BE-AFE3-80BA7328E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A3044-4A10-41E6-AC44-9705BB69DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,9 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V12" sqref="V12"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,9 @@
       <c r="V4" s="7">
         <v>100</v>
       </c>
-      <c r="W4" s="19"/>
+      <c r="W4" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1027,7 +1029,9 @@
       <c r="V7" s="7">
         <v>91</v>
       </c>
-      <c r="W7" s="19"/>
+      <c r="W7" s="7">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1236,7 +1240,9 @@
       <c r="V10" s="7">
         <v>90</v>
       </c>
-      <c r="W10" s="19"/>
+      <c r="W10" s="7">
+        <v>10</v>
+      </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
@@ -1300,7 +1306,9 @@
         <v>83</v>
       </c>
       <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="V11" s="7">
+        <v>83</v>
+      </c>
       <c r="W11" s="19"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -1367,7 +1375,9 @@
         <v>83</v>
       </c>
       <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="V12" s="7">
+        <v>83</v>
+      </c>
       <c r="W12" s="19"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -1439,7 +1449,9 @@
       <c r="V13" s="8">
         <v>92</v>
       </c>
-      <c r="W13" s="19"/>
+      <c r="W13" s="7">
+        <v>10</v>
+      </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
@@ -3562,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W6" sqref="W6:W11"/>
     </sheetView>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A3044-4A10-41E6-AC44-9705BB69DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5906D9-F4FA-44B0-BDD8-A7C0669B9F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
@@ -1584,9 +1584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1802,7 @@
       <c r="V4" s="2">
         <v>83</v>
       </c>
-      <c r="W4" s="12"/>
+      <c r="W4" s="2"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="13"/>
     </row>
@@ -1896,9 +1896,15 @@
       <c r="H6" s="2">
         <v>86</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="2">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <v>96</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1910,7 +1916,9 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="2">
+        <v>70</v>
+      </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="13"/>
     </row>
@@ -1981,7 +1989,9 @@
       <c r="V7" s="5">
         <v>86</v>
       </c>
-      <c r="W7" s="12"/>
+      <c r="W7" s="2">
+        <v>30</v>
+      </c>
       <c r="X7" s="12"/>
       <c r="Y7" s="13"/>
     </row>
@@ -2043,14 +2053,18 @@
       <c r="S8" s="2">
         <v>96</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="T8" s="2">
+        <v>95</v>
+      </c>
       <c r="U8" s="2">
         <v>83</v>
       </c>
       <c r="V8" s="2">
         <v>87</v>
       </c>
-      <c r="W8" s="12"/>
+      <c r="W8" s="2">
+        <v>30</v>
+      </c>
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -2114,7 +2128,9 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
+      <c r="W9" s="2">
+        <v>30</v>
+      </c>
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2163,14 +2179,24 @@
       <c r="O10" s="2">
         <v>86</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="P10" s="2">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>95</v>
+      </c>
+      <c r="R10" s="2">
+        <v>94</v>
+      </c>
+      <c r="S10" s="2">
+        <v>96</v>
+      </c>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
+      <c r="W10" s="2">
+        <v>85</v>
+      </c>
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2228,7 +2254,9 @@
       <c r="R11" s="5">
         <v>100</v>
       </c>
-      <c r="S11" s="16"/>
+      <c r="S11" s="5">
+        <v>100</v>
+      </c>
       <c r="T11" s="12"/>
       <c r="U11" s="5">
         <v>99</v>
@@ -2236,7 +2264,9 @@
       <c r="V11" s="2">
         <v>100</v>
       </c>
-      <c r="W11" s="12"/>
+      <c r="W11" s="2">
+        <v>20</v>
+      </c>
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2306,7 +2336,9 @@
       <c r="V12" s="3">
         <v>91</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="2">
+        <v>45</v>
+      </c>
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5906D9-F4FA-44B0-BDD8-A7C0669B9F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60585C11-146F-4348-9A2F-B25947A4ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
@@ -2596,9 +2596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,6 +2908,9 @@
       <c r="W5" s="7">
         <v>85</v>
       </c>
+      <c r="X5" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -3030,6 +3033,9 @@
       <c r="W7" s="7">
         <v>15</v>
       </c>
+      <c r="X7" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -3101,6 +3107,7 @@
       <c r="W8" s="7">
         <v>45</v>
       </c>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -3243,6 +3250,9 @@
       <c r="W10" s="7">
         <v>80</v>
       </c>
+      <c r="X10" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -3314,6 +3324,9 @@
       <c r="W11" s="7">
         <v>80</v>
       </c>
+      <c r="X11" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -3385,6 +3398,9 @@
       <c r="W12" s="7">
         <v>5</v>
       </c>
+      <c r="X12" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -3455,6 +3471,9 @@
       </c>
       <c r="W13" s="7">
         <v>50</v>
+      </c>
+      <c r="X13" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60585C11-146F-4348-9A2F-B25947A4ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1225B6-FD14-4155-956C-B94D82E0F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,7 +2598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+      <selection pane="topRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,6 +2837,9 @@
       <c r="W4" s="7">
         <v>45</v>
       </c>
+      <c r="X4" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -3107,7 +3110,9 @@
       <c r="W8" s="7">
         <v>45</v>
       </c>
-      <c r="X8" s="17"/>
+      <c r="X8" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -3177,6 +3182,9 @@
         <v>95</v>
       </c>
       <c r="W9" s="7">
+        <v>100</v>
+      </c>
+      <c r="X9" s="17">
         <v>100</v>
       </c>
     </row>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1225B6-FD14-4155-956C-B94D82E0F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D19F9-6299-4F31-A552-212BB999D726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -602,9 +593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W4" sqref="W4"/>
+      <selection pane="topRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +882,9 @@
       <c r="V5" s="7">
         <v>100</v>
       </c>
-      <c r="W5" s="19"/>
+      <c r="W5" s="7">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -960,7 +953,9 @@
       <c r="V6" s="7">
         <v>91</v>
       </c>
-      <c r="W6" s="19"/>
+      <c r="W6" s="7">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1100,7 +1095,9 @@
       <c r="V8" s="7">
         <v>100</v>
       </c>
-      <c r="W8" s="19"/>
+      <c r="W8" s="7">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1169,7 +1166,9 @@
       <c r="V9" s="7">
         <v>95</v>
       </c>
-      <c r="W9" s="19"/>
+      <c r="W9" s="7">
+        <v>60</v>
+      </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
@@ -1309,7 +1308,9 @@
       <c r="V11" s="7">
         <v>83</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="7">
+        <v>5</v>
+      </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
@@ -1378,7 +1379,9 @@
       <c r="V12" s="7">
         <v>83</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="7">
+        <v>8</v>
+      </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
@@ -1564,7 +1567,7 @@
       <c r="Y17" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E13">
+  <sortState ref="A4:E13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
@@ -2576,7 +2579,7 @@
       <c r="X21" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
+  <sortState ref="A4:A12">
     <sortCondition ref="A4:A12"/>
   </sortState>
   <mergeCells count="6">
@@ -2596,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X9" sqref="X9"/>
     </sheetView>
@@ -3612,7 +3615,7 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
+  <sortState ref="A4:J13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="7">
@@ -4357,7 +4360,7 @@
       <c r="W13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
+  <sortState ref="A4:A11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">
@@ -5051,7 +5054,7 @@
       <c r="X13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N11">
+  <sortState ref="A5:N11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D19F9-6299-4F31-A552-212BB999D726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2FD423-BDE0-4F9A-AC69-321F63ADE930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -593,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W8" sqref="W8"/>
     </sheetView>
@@ -1567,7 +1576,7 @@
       <c r="Y17" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:E13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
@@ -2579,7 +2588,7 @@
       <c r="X21" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A4:A12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
     <sortCondition ref="A4:A12"/>
   </sortState>
   <mergeCells count="6">
@@ -3615,7 +3624,7 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A4:J13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="7">
@@ -3634,11 +3643,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W6" sqref="W6:W11"/>
+      <selection pane="topRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,7 +3655,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3684,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -3707,8 +3716,11 @@
       <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -3787,7 +3799,7 @@
       </c>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -3928,8 +3940,11 @@
       <c r="W5" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -3999,8 +4014,11 @@
       <c r="W6" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4071,7 +4089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -4141,8 +4159,11 @@
       <c r="W8" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -4202,8 +4223,11 @@
       <c r="W9" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -4267,8 +4291,11 @@
       <c r="W10" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -4339,7 +4366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -4349,7 +4376,7 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -4360,7 +4387,7 @@
       <c r="W13" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:A11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">
@@ -5054,7 +5081,7 @@
       <c r="X13" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A5:N11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2FD423-BDE0-4F9A-AC69-321F63ADE930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC42D64-2DA1-4377-ACA4-F45537BF8918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3647,7 +3647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X6" sqref="X6"/>
+      <selection pane="topRight" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4407,9 +4407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W7" sqref="W7"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC42D64-2DA1-4377-ACA4-F45537BF8918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460213CF-EFB2-46F0-880E-977BE22C3011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -600,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W8" sqref="W8"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -752,8 +752,17 @@
         <v>3</v>
       </c>
       <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -824,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -895,7 +904,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -966,7 +975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
@@ -1181,7 +1190,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -1254,7 +1263,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
@@ -1323,7 +1332,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1403,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
@@ -1467,7 +1476,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1494,7 +1503,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1521,7 +1530,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3645,7 +3654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y23" sqref="Y23"/>
     </sheetView>
@@ -4407,7 +4416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X2" sqref="X2"/>
     </sheetView>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460213CF-EFB2-46F0-880E-977BE22C3011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22D1BA-3FAE-40C2-992E-CBD66D1F5FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
@@ -1603,11 +1603,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1615,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -1755,8 +1755,17 @@
         <v>3</v>
       </c>
       <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -1827,7 +1836,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>41</v>
       </c>
@@ -1892,7 +1901,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1952,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +2025,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
@@ -2088,7 +2097,7 @@
       </c>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
@@ -2154,7 +2163,7 @@
       </c>
       <c r="X9" s="12"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>44</v>
       </c>
@@ -2220,7 +2229,7 @@
       </c>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -2290,7 +2299,7 @@
       </c>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
@@ -2362,7 +2371,7 @@
       </c>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2388,7 +2397,7 @@
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2414,7 +2423,7 @@
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2440,7 +2449,7 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22D1BA-3FAE-40C2-992E-CBD66D1F5FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAAAA2F-8422-4161-BDB0-EA74100211E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -1605,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
@@ -3661,11 +3661,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y23" sqref="Y23"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,7 +3673,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -3737,8 +3737,11 @@
       <c r="X2" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -3817,7 +3820,7 @@
       </c>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -4394,7 +4397,7 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAAAA2F-8422-4161-BDB0-EA74100211E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3D5C5-7952-4B33-9CC9-B991E8EF9513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -3663,7 +3663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
@@ -4426,11 +4426,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,7 +4438,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -4499,8 +4499,14 @@
       <c r="W2" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -4579,7 +4585,7 @@
       </c>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -4649,9 +4655,11 @@
       <c r="W4" s="7">
         <v>155</v>
       </c>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -4721,9 +4729,11 @@
       <c r="W5" s="7">
         <v>40</v>
       </c>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X5" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -4793,9 +4803,11 @@
       <c r="W6" s="7">
         <v>100</v>
       </c>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -4865,9 +4877,11 @@
       <c r="W7" s="7">
         <v>85</v>
       </c>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -4900,9 +4914,11 @@
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -4972,9 +4988,11 @@
       <c r="W9" s="7">
         <v>15</v>
       </c>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X9" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>49</v>
       </c>
@@ -4999,9 +5017,11 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
@@ -5071,9 +5091,11 @@
       <c r="W11" s="7">
         <v>70</v>
       </c>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -5087,7 +5109,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3D5C5-7952-4B33-9CC9-B991E8EF9513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68175073-68FD-44AE-A870-E8E331653EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="-11640" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -1606,8 +1606,8 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,9 +2626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+      <selection pane="topRight" activeCell="Y8" sqref="Y8:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,6 +2944,9 @@
       <c r="X5" s="17">
         <v>100</v>
       </c>
+      <c r="Y5" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -3009,6 +3012,9 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
+      <c r="Y6" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -3069,6 +3075,9 @@
       <c r="X7" s="17">
         <v>100</v>
       </c>
+      <c r="Y7" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -3143,6 +3152,9 @@
       <c r="X8" s="17">
         <v>100</v>
       </c>
+      <c r="Y8" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -3217,6 +3229,9 @@
       <c r="X9" s="17">
         <v>100</v>
       </c>
+      <c r="Y9" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -3291,6 +3306,9 @@
       <c r="X10" s="17">
         <v>100</v>
       </c>
+      <c r="Y10" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -3365,6 +3383,9 @@
       <c r="X11" s="17">
         <v>100</v>
       </c>
+      <c r="Y11" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -3439,6 +3460,9 @@
       <c r="X12" s="17">
         <v>100</v>
       </c>
+      <c r="Y12" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -3511,6 +3535,9 @@
         <v>50</v>
       </c>
       <c r="X13" s="17">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="17">
         <v>100</v>
       </c>
     </row>
@@ -4428,9 +4455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="topRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68175073-68FD-44AE-A870-E8E331653EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DD7E1-73CD-492B-9AE5-5688F738A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="-11640" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -2626,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y8" sqref="Y8:Y13"/>
     </sheetView>
@@ -4453,11 +4453,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,7 +4465,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -4532,8 +4532,11 @@
       <c r="Y2" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -4612,7 +4615,7 @@
       </c>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -4685,8 +4688,11 @@
       <c r="X4" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -4759,8 +4765,11 @@
       <c r="X5" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -4833,8 +4842,11 @@
       <c r="X6" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -4907,8 +4919,11 @@
       <c r="X7" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -4944,8 +4959,11 @@
       <c r="X8" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -5018,8 +5036,11 @@
       <c r="X9" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>49</v>
       </c>
@@ -5047,8 +5068,11 @@
       <c r="X10" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
@@ -5121,8 +5145,11 @@
       <c r="X11" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -5136,7 +5163,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DD7E1-73CD-492B-9AE5-5688F738A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F8CD8-1B6F-41CE-8B40-A3C9BE534774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -2626,9 +2626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y8" sqref="Y8:Y13"/>
+      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,7 +4455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FADA61-5C96-4888-B06A-035DB9B01847}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F8CD8-1B6F-41CE-8B40-A3C9BE534774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA6B637-4F76-4E5C-8BC6-0F943F5BAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -2626,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
@@ -3690,9 +3690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="topRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,6 +3917,9 @@
       <c r="W4" s="7">
         <v>100</v>
       </c>
+      <c r="Y4" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3991,6 +3994,9 @@
       <c r="X5" s="17">
         <v>100</v>
       </c>
+      <c r="Y5" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4065,6 +4071,7 @@
       <c r="X6" s="17">
         <v>100</v>
       </c>
+      <c r="Y6" s="17"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4136,6 +4143,9 @@
       <c r="W7" s="7">
         <v>100</v>
       </c>
+      <c r="Y7" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4208,6 +4218,9 @@
         <v>100</v>
       </c>
       <c r="X8" s="17">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="17">
         <v>100</v>
       </c>
     </row>
@@ -4274,6 +4287,9 @@
       <c r="X9" s="17">
         <v>100</v>
       </c>
+      <c r="Y9" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4342,6 +4358,9 @@
       <c r="X10" s="17">
         <v>100</v>
       </c>
+      <c r="Y10" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4411,6 +4430,9 @@
         <v>91</v>
       </c>
       <c r="W11" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="17">
         <v>100</v>
       </c>
     </row>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA6B637-4F76-4E5C-8BC6-0F943F5BAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF338C0-8AB8-466F-95F6-5559683688EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,9 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +832,9 @@
       <c r="W4" s="7">
         <v>12</v>
       </c>
+      <c r="X4" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -903,6 +906,9 @@
       <c r="W5" s="7">
         <v>110</v>
       </c>
+      <c r="X5" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -974,6 +980,9 @@
       <c r="W6" s="7">
         <v>45</v>
       </c>
+      <c r="X6" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1045,6 +1054,9 @@
       <c r="W7" s="7">
         <v>14</v>
       </c>
+      <c r="X7" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1116,6 +1128,9 @@
       <c r="W8" s="7">
         <v>40</v>
       </c>
+      <c r="X8" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1187,7 +1202,9 @@
       <c r="W9" s="7">
         <v>60</v>
       </c>
-      <c r="X9" s="13"/>
+      <c r="X9" s="7">
+        <v>100</v>
+      </c>
       <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1260,7 +1277,9 @@
       <c r="W10" s="7">
         <v>10</v>
       </c>
-      <c r="X10" s="13"/>
+      <c r="X10" s="7">
+        <v>100</v>
+      </c>
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1329,7 +1348,9 @@
       <c r="W11" s="7">
         <v>5</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="7">
+        <v>100</v>
+      </c>
       <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1400,7 +1421,9 @@
       <c r="W12" s="7">
         <v>8</v>
       </c>
-      <c r="X12" s="13"/>
+      <c r="X12" s="7">
+        <v>100</v>
+      </c>
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1473,7 +1496,9 @@
       <c r="W13" s="7">
         <v>10</v>
       </c>
-      <c r="X13" s="13"/>
+      <c r="X13" s="7">
+        <v>100</v>
+      </c>
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -3690,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF338C0-8AB8-466F-95F6-5559683688EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAA533-CC55-4FC2-B365-C8E2B7B8B1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4:X13"/>
+      <selection pane="topRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAA533-CC55-4FC2-B365-C8E2B7B8B1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0663C1B-5F51-47CC-A6C6-8848D45866F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
@@ -1630,9 +1630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1858,9 @@
         <v>83</v>
       </c>
       <c r="W4" s="2"/>
-      <c r="X4" s="12"/>
+      <c r="X4" s="2">
+        <v>100</v>
+      </c>
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1974,7 +1976,9 @@
       <c r="W6" s="2">
         <v>70</v>
       </c>
-      <c r="X6" s="12"/>
+      <c r="X6" s="2">
+        <v>100</v>
+      </c>
       <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -2047,7 +2051,9 @@
       <c r="W7" s="2">
         <v>30</v>
       </c>
-      <c r="X7" s="12"/>
+      <c r="X7" s="2">
+        <v>100</v>
+      </c>
       <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -2120,7 +2126,9 @@
       <c r="W8" s="2">
         <v>30</v>
       </c>
-      <c r="X8" s="12"/>
+      <c r="X8" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2186,7 +2194,9 @@
       <c r="W9" s="2">
         <v>30</v>
       </c>
-      <c r="X9" s="12"/>
+      <c r="X9" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -2252,7 +2262,9 @@
       <c r="W10" s="2">
         <v>85</v>
       </c>
-      <c r="X10" s="12"/>
+      <c r="X10" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -2394,7 +2406,9 @@
       <c r="W12" s="2">
         <v>45</v>
       </c>
-      <c r="X12" s="12"/>
+      <c r="X12" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0663C1B-5F51-47CC-A6C6-8848D45866F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BE502-DACD-42F6-BB27-E52F81F18A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -1630,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331428A-620A-44D2-9959-9DECEF50B2C0}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X12" sqref="X12"/>
     </sheetView>
@@ -3727,9 +3727,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
@@ -3739,7 +3739,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -3806,8 +3806,11 @@
       <c r="Y2" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -3886,7 +3889,7 @@
       </c>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -4036,8 +4039,11 @@
       <c r="Y5" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -4111,8 +4117,9 @@
         <v>100</v>
       </c>
       <c r="Y6" s="17"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4185,8 +4192,11 @@
       <c r="Y7" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -4262,8 +4272,11 @@
       <c r="Y8" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -4329,8 +4342,11 @@
       <c r="Y9" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -4400,8 +4416,11 @@
       <c r="Y10" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -4474,8 +4493,11 @@
       <c r="Y11" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -4485,7 +4507,7 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BE502-DACD-42F6-BB27-E52F81F18A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8491931C-8C39-4173-AE29-17350548F441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>اسم</t>
   </si>
@@ -195,6 +186,12 @@
   <si>
     <t>Word</t>
   </si>
+  <si>
+    <t xml:space="preserve">Putri </t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +306,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -600,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,69 +613,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="17">
         <v>1</v>
       </c>
@@ -1530,21 +1530,17 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="19"/>
@@ -1557,21 +1553,17 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="19"/>
@@ -1584,21 +1576,17 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="I17" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -1609,8 +1597,152 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C29" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C31" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C32" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E13">
+  <sortState ref="A4:E13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="6">
@@ -1631,8 +1763,8 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X12" sqref="X12"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,69 +1773,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1779,7 +1911,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="17">
         <v>1</v>
       </c>
@@ -2645,7 +2777,7 @@
       <c r="X21" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
+  <sortState ref="A4:A12">
     <sortCondition ref="A4:A12"/>
   </sortState>
   <mergeCells count="6">
@@ -2666,8 +2798,8 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,80 +2808,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2825,7 +2957,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="17">
         <v>1</v>
       </c>
@@ -3708,7 +3840,7 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J13">
+  <sortState ref="A4:J13">
     <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="7">
@@ -3729,9 +3861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z6" sqref="Z6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,64 +3872,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="17">
@@ -3811,7 +3943,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3887,7 +4019,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4518,7 +4650,7 @@
       <c r="W13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A11">
+  <sortState ref="A4:A11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">
@@ -4540,7 +4672,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,64 +4681,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="17">
@@ -4620,7 +4752,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4696,7 +4828,7 @@
       <c r="V3" s="2">
         <v>3</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -5261,7 +5393,7 @@
       <c r="X13" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N11">
+  <sortState ref="A5:N11">
     <sortCondition ref="A4:A11"/>
   </sortState>
   <mergeCells count="6">

--- a/pesantren/modul-komputer-mabaiz/penilaian.xlsx
+++ b/pesantren/modul-komputer-mabaiz/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8491931C-8C39-4173-AE29-17350548F441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B6890C-B437-426A-8C4A-F7BEAD00D36C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاثنين" sheetId="5" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19D3B-2FDF-4B23-B1AA-93203B194380}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
@@ -1763,8 +1763,8 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:X12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,7 +2799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:Y13"/>
+      <selection pane="topRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,9 +3861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEBF04-06B9-43E2-90DC-1C2C9DD1F182}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:Z11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4671,8 +4671,8 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:Y11"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
